--- a/server/test-data/test-units-100.xlsx
+++ b/server/test-data/test-units-100.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="692">
   <si>
     <t>부대 교육 정보 업로드</t>
   </si>
@@ -130,36 +130,39 @@
     <t>인천광역시 미추홀구 군사로 278번길</t>
   </si>
   <si>
+    <t>2025-02-02</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>010-3149-7210</t>
+  </si>
+  <si>
+    <t>준우8@navy.mil.kr</t>
+  </si>
+  <si>
+    <t>회의실B</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>09:00</t>
-  </si>
-  <si>
-    <t>18:00</t>
-  </si>
-  <si>
-    <t>12:00</t>
-  </si>
-  <si>
-    <t>13:00</t>
-  </si>
-  <si>
-    <t>010-3149-7210</t>
-  </si>
-  <si>
-    <t>준우8@navy.mil.kr</t>
-  </si>
-  <si>
-    <t>회의실B</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>제8기갑여단</t>
   </si>
   <si>
@@ -262,7 +265,7 @@
     <t>북구</t>
   </si>
   <si>
-    <t>2025-02-10</t>
+    <t>2025-02-04</t>
   </si>
   <si>
     <t>Marines</t>
@@ -274,9 +277,6 @@
     <t>광주광역시</t>
   </si>
   <si>
-    <t>2025-02-08</t>
-  </si>
-  <si>
     <t>광주광역시 북구 군사로 467번길</t>
   </si>
   <si>
@@ -322,6 +322,9 @@
     <t>동구</t>
   </si>
   <si>
+    <t>2025-02-05</t>
+  </si>
+  <si>
     <t>송우진</t>
   </si>
   <si>
@@ -331,6 +334,9 @@
     <t>대구광역시 동구 군사로 827번길</t>
   </si>
   <si>
+    <t>2025-02-02, 2025-02-04</t>
+  </si>
+  <si>
     <t>010-8977-2120</t>
   </si>
   <si>
@@ -343,6 +349,9 @@
     <t>유성구</t>
   </si>
   <si>
+    <t>2025-02-06</t>
+  </si>
+  <si>
     <t>송재원</t>
   </si>
   <si>
@@ -350,6 +359,9 @@
   </si>
   <si>
     <t>대전광역시 유성구 군사로 428번길</t>
+  </si>
+  <si>
+    <t>2025-02-03, 2025-02-04</t>
   </si>
   <si>
     <t>010-3769-8803</t>
@@ -2646,7 +2658,7 @@
         <v>5</v>
       </c>
       <c r="AC4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.25">
@@ -2654,10 +2666,10 @@
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
@@ -2666,16 +2678,16 @@
         <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I5" t="s">
         <v>37</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K5">
         <v>34.296</v>
@@ -2699,13 +2711,13 @@
         <v>43</v>
       </c>
       <c r="R5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U5" t="s">
         <v>47</v>
@@ -2732,18 +2744,18 @@
         <v>8</v>
       </c>
       <c r="AC5" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
         <v>33</v>
@@ -2752,16 +2764,16 @@
         <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I6" t="s">
         <v>37</v>
       </c>
       <c r="J6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K6">
         <v>36.849</v>
@@ -2785,13 +2797,13 @@
         <v>43</v>
       </c>
       <c r="R6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T6" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U6" t="s">
         <v>47</v>
@@ -2818,18 +2830,18 @@
         <v>6</v>
       </c>
       <c r="AC6" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
         <v>33</v>
@@ -2838,16 +2850,16 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I7" t="s">
         <v>37</v>
       </c>
       <c r="J7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K7">
         <v>33.3255</v>
@@ -2871,13 +2883,13 @@
         <v>43</v>
       </c>
       <c r="R7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T7" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U7" t="s">
         <v>48</v>
@@ -2904,36 +2916,36 @@
         <v>8</v>
       </c>
       <c r="AC7" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
         <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I8" t="s">
         <v>37</v>
       </c>
       <c r="J8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K8">
         <v>37.2631</v>
@@ -2957,13 +2969,13 @@
         <v>43</v>
       </c>
       <c r="R8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U8" t="s">
         <v>47</v>
@@ -2990,7 +3002,7 @@
         <v>8</v>
       </c>
       <c r="AC8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.25">
@@ -2998,25 +3010,25 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I9" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="J9" t="s">
         <v>88</v>
@@ -3049,7 +3061,7 @@
         <v>90</v>
       </c>
       <c r="T9" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U9" t="s">
         <v>47</v>
@@ -3076,7 +3088,7 @@
         <v>6</v>
       </c>
       <c r="AC9" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.25">
@@ -3090,7 +3102,7 @@
         <v>93</v>
       </c>
       <c r="E10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F10" t="s">
         <v>94</v>
@@ -3102,7 +3114,7 @@
         <v>36</v>
       </c>
       <c r="I10" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="J10" t="s">
         <v>96</v>
@@ -3167,7 +3179,7 @@
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
         <v>101</v>
@@ -3176,22 +3188,22 @@
         <v>102</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="F11" t="s">
         <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I11" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="J11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K11">
         <v>36.0447</v>
@@ -3200,7 +3212,7 @@
         <v>127.5559</v>
       </c>
       <c r="M11" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="N11" t="s">
         <v>40</v>
@@ -3215,10 +3227,10 @@
         <v>43</v>
       </c>
       <c r="R11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="S11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="T11" t="s">
         <v>30</v>
@@ -3248,36 +3260,36 @@
         <v>7</v>
       </c>
       <c r="AC11" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H12" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I12" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="J12" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K12">
         <v>36.815</v>
@@ -3286,7 +3298,7 @@
         <v>125.6109</v>
       </c>
       <c r="M12" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="N12" t="s">
         <v>40</v>
@@ -3301,13 +3313,13 @@
         <v>43</v>
       </c>
       <c r="R12" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="S12" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="T12" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U12" t="s">
         <v>47</v>
@@ -3334,36 +3346,36 @@
         <v>5</v>
       </c>
       <c r="AC12" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D13" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
         <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H13" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I13" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="J13" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K13">
         <v>37.4814</v>
@@ -3372,7 +3384,7 @@
         <v>129.8128</v>
       </c>
       <c r="M13" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N13" t="s">
         <v>40</v>
@@ -3387,13 +3399,13 @@
         <v>43</v>
       </c>
       <c r="R13" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="S13" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="T13" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U13" t="s">
         <v>48</v>
@@ -3420,36 +3432,36 @@
         <v>7</v>
       </c>
       <c r="AC13" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F14" t="s">
         <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I14" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="J14" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K14">
         <v>36.2246</v>
@@ -3458,7 +3470,7 @@
         <v>126.8319</v>
       </c>
       <c r="M14" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N14" t="s">
         <v>40</v>
@@ -3473,13 +3485,13 @@
         <v>43</v>
       </c>
       <c r="R14" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="S14" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="T14" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U14" t="s">
         <v>47</v>
@@ -3506,7 +3518,7 @@
         <v>4</v>
       </c>
       <c r="AC14" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.25">
@@ -3514,28 +3526,28 @@
         <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D15" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E15" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F15" t="s">
         <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H15" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I15" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="J15" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K15">
         <v>34.699</v>
@@ -3544,7 +3556,7 @@
         <v>127.5089</v>
       </c>
       <c r="M15" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N15" t="s">
         <v>40</v>
@@ -3559,13 +3571,13 @@
         <v>43</v>
       </c>
       <c r="R15" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="S15" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="T15" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U15" t="s">
         <v>47</v>
@@ -3592,7 +3604,7 @@
         <v>6</v>
       </c>
       <c r="AC15" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.25">
@@ -3600,28 +3612,28 @@
         <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D16" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E16" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F16" t="s">
         <v>94</v>
       </c>
       <c r="G16" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H16" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I16" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="J16" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K16">
         <v>33.5549</v>
@@ -3630,7 +3642,7 @@
         <v>125.8476</v>
       </c>
       <c r="M16" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N16" t="s">
         <v>40</v>
@@ -3645,13 +3657,13 @@
         <v>43</v>
       </c>
       <c r="R16" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="S16" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="T16" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U16" t="s">
         <v>47</v>
@@ -3678,7 +3690,7 @@
         <v>7</v>
       </c>
       <c r="AC16" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.25">
@@ -3686,28 +3698,28 @@
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D17" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H17" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I17" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="J17" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="K17">
         <v>33.9618</v>
@@ -3716,7 +3728,7 @@
         <v>128.7602</v>
       </c>
       <c r="M17" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N17" t="s">
         <v>40</v>
@@ -3731,13 +3743,13 @@
         <v>43</v>
       </c>
       <c r="R17" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="S17" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="T17" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U17" t="s">
         <v>47</v>
@@ -3764,7 +3776,7 @@
         <v>3</v>
       </c>
       <c r="AC17" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.25">
@@ -3772,28 +3784,28 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D18" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E18" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F18" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G18" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I18" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="J18" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K18">
         <v>36.7795</v>
@@ -3802,7 +3814,7 @@
         <v>128.2743</v>
       </c>
       <c r="M18" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N18" t="s">
         <v>40</v>
@@ -3817,13 +3829,13 @@
         <v>43</v>
       </c>
       <c r="R18" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="S18" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="T18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U18" t="s">
         <v>47</v>
@@ -3850,7 +3862,7 @@
         <v>2</v>
       </c>
       <c r="AC18" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.25">
@@ -3858,28 +3870,28 @@
         <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D19" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E19" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F19" t="s">
         <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I19" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="J19" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K19">
         <v>35.3862</v>
@@ -3888,7 +3900,7 @@
         <v>126.362</v>
       </c>
       <c r="M19" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N19" t="s">
         <v>40</v>
@@ -3903,13 +3915,13 @@
         <v>43</v>
       </c>
       <c r="R19" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="S19" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="T19" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U19" t="s">
         <v>47</v>
@@ -3936,7 +3948,7 @@
         <v>3</v>
       </c>
       <c r="AC19" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.25">
@@ -3944,28 +3956,28 @@
         <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D20" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E20" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F20" t="s">
         <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H20" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="I20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="J20" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K20">
         <v>36.2281</v>
@@ -3974,7 +3986,7 @@
         <v>125.6261</v>
       </c>
       <c r="M20" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N20" t="s">
         <v>40</v>
@@ -3989,10 +4001,10 @@
         <v>43</v>
       </c>
       <c r="R20" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="S20" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="T20" t="s">
         <v>99</v>
@@ -4022,36 +4034,36 @@
         <v>5</v>
       </c>
       <c r="AC20" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D21" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E21" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F21" t="s">
         <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H21" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="I21" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="J21" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="K21">
         <v>35.659</v>
@@ -4060,7 +4072,7 @@
         <v>125.6902</v>
       </c>
       <c r="M21" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N21" t="s">
         <v>40</v>
@@ -4075,13 +4087,13 @@
         <v>43</v>
       </c>
       <c r="R21" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="S21" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="T21" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U21" t="s">
         <v>48</v>
@@ -4108,36 +4120,36 @@
         <v>3</v>
       </c>
       <c r="AC21" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D22" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E22" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F22" t="s">
         <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H22" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I22" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="J22" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K22">
         <v>35.6441</v>
@@ -4146,7 +4158,7 @@
         <v>128.079</v>
       </c>
       <c r="M22" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N22" t="s">
         <v>40</v>
@@ -4161,13 +4173,13 @@
         <v>43</v>
       </c>
       <c r="R22" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="S22" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="T22" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U22" t="s">
         <v>48</v>
@@ -4194,36 +4206,36 @@
         <v>2</v>
       </c>
       <c r="AC22" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C23" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D23" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E23" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F23" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G23" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I23" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="J23" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K23">
         <v>34.1395</v>
@@ -4232,7 +4244,7 @@
         <v>127.1615</v>
       </c>
       <c r="M23" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N23" t="s">
         <v>40</v>
@@ -4247,10 +4259,10 @@
         <v>43</v>
       </c>
       <c r="R23" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="S23" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="T23" t="s">
         <v>91</v>
@@ -4280,36 +4292,36 @@
         <v>7</v>
       </c>
       <c r="AC23" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D24" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E24" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F24" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G24" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H24" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I24" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="J24" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K24">
         <v>37.5569</v>
@@ -4318,7 +4330,7 @@
         <v>125.404</v>
       </c>
       <c r="M24" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N24" t="s">
         <v>40</v>
@@ -4333,13 +4345,13 @@
         <v>43</v>
       </c>
       <c r="R24" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="S24" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="T24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U24" t="s">
         <v>47</v>
@@ -4366,36 +4378,36 @@
         <v>5</v>
       </c>
       <c r="AC24" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D25" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E25" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F25" t="s">
         <v>94</v>
       </c>
       <c r="G25" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I25" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="J25" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="K25">
         <v>34.9351</v>
@@ -4404,7 +4416,7 @@
         <v>127.0992</v>
       </c>
       <c r="M25" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N25" t="s">
         <v>40</v>
@@ -4419,13 +4431,13 @@
         <v>43</v>
       </c>
       <c r="R25" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="S25" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="T25" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U25" t="s">
         <v>47</v>
@@ -4452,7 +4464,7 @@
         <v>3</v>
       </c>
       <c r="AC25" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.25">
@@ -4460,28 +4472,28 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D26" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E26" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F26" t="s">
         <v>34</v>
       </c>
       <c r="G26" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H26" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="I26" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="J26" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="K26">
         <v>34.4023</v>
@@ -4490,7 +4502,7 @@
         <v>128.0441</v>
       </c>
       <c r="M26" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N26" t="s">
         <v>40</v>
@@ -4505,13 +4517,13 @@
         <v>43</v>
       </c>
       <c r="R26" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="S26" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="T26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U26" t="s">
         <v>47</v>
@@ -4538,7 +4550,7 @@
         <v>4</v>
       </c>
       <c r="AC26" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.25">
@@ -4546,28 +4558,28 @@
         <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D27" t="s">
         <v>93</v>
       </c>
       <c r="E27" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F27" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G27" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H27" t="s">
         <v>36</v>
       </c>
       <c r="I27" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="J27" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="K27">
         <v>36.3441</v>
@@ -4576,7 +4588,7 @@
         <v>127.475</v>
       </c>
       <c r="M27" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N27" t="s">
         <v>40</v>
@@ -4591,10 +4603,10 @@
         <v>43</v>
       </c>
       <c r="R27" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="S27" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="T27" t="s">
         <v>91</v>
@@ -4624,36 +4636,36 @@
         <v>6</v>
       </c>
       <c r="AC27" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D28" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E28" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F28" t="s">
         <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="H28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I28" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="J28" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="K28">
         <v>33.9116</v>
@@ -4662,7 +4674,7 @@
         <v>128.094</v>
       </c>
       <c r="M28" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N28" t="s">
         <v>40</v>
@@ -4677,13 +4689,13 @@
         <v>43</v>
       </c>
       <c r="R28" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="S28" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="T28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U28" t="s">
         <v>47</v>
@@ -4710,7 +4722,7 @@
         <v>7</v>
       </c>
       <c r="AC28" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="2:29" x14ac:dyDescent="0.25">
@@ -4718,28 +4730,28 @@
         <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D29" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E29" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F29" t="s">
         <v>34</v>
       </c>
       <c r="G29" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I29" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="J29" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K29">
         <v>35.5139</v>
@@ -4748,7 +4760,7 @@
         <v>127.2348</v>
       </c>
       <c r="M29" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N29" t="s">
         <v>40</v>
@@ -4763,13 +4775,13 @@
         <v>43</v>
       </c>
       <c r="R29" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="S29" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="T29" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U29" t="s">
         <v>47</v>
@@ -4796,36 +4808,36 @@
         <v>3</v>
       </c>
       <c r="AC29" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
+        <v>235</v>
+      </c>
+      <c r="D30" t="s">
+        <v>148</v>
+      </c>
+      <c r="E30" t="s">
+        <v>229</v>
+      </c>
+      <c r="F30" t="s">
+        <v>155</v>
+      </c>
+      <c r="G30" t="s">
+        <v>236</v>
+      </c>
+      <c r="H30" t="s">
+        <v>87</v>
+      </c>
+      <c r="I30" t="s">
         <v>231</v>
       </c>
-      <c r="D30" t="s">
-        <v>144</v>
-      </c>
-      <c r="E30" t="s">
-        <v>225</v>
-      </c>
-      <c r="F30" t="s">
-        <v>151</v>
-      </c>
-      <c r="G30" t="s">
-        <v>232</v>
-      </c>
-      <c r="H30" t="s">
-        <v>86</v>
-      </c>
-      <c r="I30" t="s">
-        <v>227</v>
-      </c>
       <c r="J30" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K30">
         <v>33.2376</v>
@@ -4834,7 +4846,7 @@
         <v>127.1207</v>
       </c>
       <c r="M30" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N30" t="s">
         <v>40</v>
@@ -4849,13 +4861,13 @@
         <v>43</v>
       </c>
       <c r="R30" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="S30" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="T30" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U30" t="s">
         <v>47</v>
@@ -4882,36 +4894,36 @@
         <v>2</v>
       </c>
       <c r="AC30" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D31" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E31" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F31" t="s">
         <v>34</v>
       </c>
       <c r="G31" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="H31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I31" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="J31" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K31">
         <v>34.3877</v>
@@ -4920,7 +4932,7 @@
         <v>128.3275</v>
       </c>
       <c r="M31" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N31" t="s">
         <v>40</v>
@@ -4935,13 +4947,13 @@
         <v>43</v>
       </c>
       <c r="R31" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="S31" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="T31" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U31" t="s">
         <v>47</v>
@@ -4968,7 +4980,7 @@
         <v>6</v>
       </c>
       <c r="AC31" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="2:29" x14ac:dyDescent="0.25">
@@ -4976,28 +4988,28 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D32" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E32" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F32" t="s">
         <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H32" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="I32" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="J32" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K32">
         <v>34.25</v>
@@ -5006,7 +5018,7 @@
         <v>127.9738</v>
       </c>
       <c r="M32" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N32" t="s">
         <v>40</v>
@@ -5021,13 +5033,13 @@
         <v>43</v>
       </c>
       <c r="R32" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="S32" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="T32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U32" t="s">
         <v>48</v>
@@ -5054,7 +5066,7 @@
         <v>3</v>
       </c>
       <c r="AC32" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="2:29" x14ac:dyDescent="0.25">
@@ -5062,28 +5074,28 @@
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D33" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E33" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F33" t="s">
         <v>94</v>
       </c>
       <c r="G33" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H33" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="I33" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="J33" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K33">
         <v>34.668</v>
@@ -5092,7 +5104,7 @@
         <v>129.8762</v>
       </c>
       <c r="M33" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N33" t="s">
         <v>40</v>
@@ -5107,13 +5119,13 @@
         <v>43</v>
       </c>
       <c r="R33" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="S33" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="T33" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U33" t="s">
         <v>47</v>
@@ -5140,36 +5152,36 @@
         <v>3</v>
       </c>
       <c r="AC33" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="34" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C34" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D34" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E34" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F34" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="H34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I34" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J34" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K34">
         <v>34.02</v>
@@ -5178,7 +5190,7 @@
         <v>128.2251</v>
       </c>
       <c r="M34" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N34" t="s">
         <v>40</v>
@@ -5193,13 +5205,13 @@
         <v>43</v>
       </c>
       <c r="R34" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="S34" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="T34" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U34" t="s">
         <v>48</v>
@@ -5226,36 +5238,36 @@
         <v>7</v>
       </c>
       <c r="AC34" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D35" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E35" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F35" t="s">
         <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I35" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J35" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K35">
         <v>36.0861</v>
@@ -5264,7 +5276,7 @@
         <v>125.768</v>
       </c>
       <c r="M35" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N35" t="s">
         <v>40</v>
@@ -5279,10 +5291,10 @@
         <v>43</v>
       </c>
       <c r="R35" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="S35" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="T35" t="s">
         <v>30</v>
@@ -5312,36 +5324,36 @@
         <v>6</v>
       </c>
       <c r="AC35" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C36" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D36" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E36" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F36" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H36" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="I36" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J36" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="K36">
         <v>36.6343</v>
@@ -5350,7 +5362,7 @@
         <v>129.8106</v>
       </c>
       <c r="M36" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N36" t="s">
         <v>40</v>
@@ -5365,13 +5377,13 @@
         <v>43</v>
       </c>
       <c r="R36" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="S36" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="T36" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="U36" t="s">
         <v>48</v>
@@ -5398,36 +5410,36 @@
         <v>5</v>
       </c>
       <c r="AC36" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C37" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D37" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E37" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F37" t="s">
         <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="H37" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="I37" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J37" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="K37">
         <v>34.5218</v>
@@ -5436,7 +5448,7 @@
         <v>127.4516</v>
       </c>
       <c r="M37" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N37" t="s">
         <v>40</v>
@@ -5451,13 +5463,13 @@
         <v>43</v>
       </c>
       <c r="R37" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="S37" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="T37" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U37" t="s">
         <v>47</v>
@@ -5484,36 +5496,36 @@
         <v>4</v>
       </c>
       <c r="AC37" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D38" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E38" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F38" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G38" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="H38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I38" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J38" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K38">
         <v>34.7125</v>
@@ -5522,7 +5534,7 @@
         <v>128.2323</v>
       </c>
       <c r="M38" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N38" t="s">
         <v>40</v>
@@ -5537,13 +5549,13 @@
         <v>43</v>
       </c>
       <c r="R38" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="S38" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="T38" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U38" t="s">
         <v>48</v>
@@ -5570,7 +5582,7 @@
         <v>7</v>
       </c>
       <c r="AC38" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="2:29" x14ac:dyDescent="0.25">
@@ -5578,28 +5590,28 @@
         <v>99</v>
       </c>
       <c r="C39" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D39" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E39" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F39" t="s">
         <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="H39" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I39" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="J39" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="K39">
         <v>37.9662</v>
@@ -5608,7 +5620,7 @@
         <v>129.9109</v>
       </c>
       <c r="M39" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N39" t="s">
         <v>40</v>
@@ -5623,10 +5635,10 @@
         <v>43</v>
       </c>
       <c r="R39" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="S39" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="T39" t="s">
         <v>30</v>
@@ -5656,7 +5668,7 @@
         <v>4</v>
       </c>
       <c r="AC39" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="2:29" x14ac:dyDescent="0.25">
@@ -5664,28 +5676,28 @@
         <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D40" t="s">
         <v>102</v>
       </c>
       <c r="E40" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G40" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="H40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I40" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="J40" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="K40">
         <v>35.2392</v>
@@ -5694,7 +5706,7 @@
         <v>126.5971</v>
       </c>
       <c r="M40" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N40" t="s">
         <v>40</v>
@@ -5709,13 +5721,13 @@
         <v>43</v>
       </c>
       <c r="R40" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="S40" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="T40" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U40" t="s">
         <v>48</v>
@@ -5742,7 +5754,7 @@
         <v>6</v>
       </c>
       <c r="AC40" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41" spans="2:29" x14ac:dyDescent="0.25">
@@ -5750,28 +5762,28 @@
         <v>91</v>
       </c>
       <c r="C41" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D41" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E41" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F41" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G41" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I41" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="J41" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="K41">
         <v>34.8877</v>
@@ -5780,7 +5792,7 @@
         <v>125.8713</v>
       </c>
       <c r="M41" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N41" t="s">
         <v>40</v>
@@ -5795,13 +5807,13 @@
         <v>43</v>
       </c>
       <c r="R41" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="S41" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="T41" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U41" t="s">
         <v>47</v>
@@ -5828,7 +5840,7 @@
         <v>4</v>
       </c>
       <c r="AC41" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="2:29" x14ac:dyDescent="0.25">
@@ -5836,28 +5848,28 @@
         <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D42" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="E42" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F42" t="s">
         <v>94</v>
       </c>
       <c r="G42" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="H42" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I42" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="J42" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="K42">
         <v>34.9565</v>
@@ -5866,7 +5878,7 @@
         <v>128.1537</v>
       </c>
       <c r="M42" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N42" t="s">
         <v>40</v>
@@ -5881,13 +5893,13 @@
         <v>43</v>
       </c>
       <c r="R42" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="S42" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="T42" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U42" t="s">
         <v>47</v>
@@ -5914,36 +5926,36 @@
         <v>5</v>
       </c>
       <c r="AC42" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="43" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C43" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D43" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="E43" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G43" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="H43" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="I43" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="J43" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="K43">
         <v>33.9553</v>
@@ -5952,7 +5964,7 @@
         <v>126.7524</v>
       </c>
       <c r="M43" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N43" t="s">
         <v>40</v>
@@ -5967,10 +5979,10 @@
         <v>43</v>
       </c>
       <c r="R43" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="S43" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="T43" t="s">
         <v>46</v>
@@ -6000,36 +6012,36 @@
         <v>4</v>
       </c>
       <c r="AC43" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C44" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D44" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="E44" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F44" t="s">
         <v>94</v>
       </c>
       <c r="G44" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="H44" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="I44" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="J44" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="K44">
         <v>33.467</v>
@@ -6038,7 +6050,7 @@
         <v>128.6461</v>
       </c>
       <c r="M44" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N44" t="s">
         <v>40</v>
@@ -6053,13 +6065,13 @@
         <v>43</v>
       </c>
       <c r="R44" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="S44" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="T44" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U44" t="s">
         <v>47</v>
@@ -6086,36 +6098,36 @@
         <v>3</v>
       </c>
       <c r="AC44" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C45" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D45" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="E45" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F45" t="s">
         <v>94</v>
       </c>
       <c r="G45" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="H45" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I45" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="J45" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="K45">
         <v>35.3806</v>
@@ -6124,7 +6136,7 @@
         <v>128.182</v>
       </c>
       <c r="M45" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N45" t="s">
         <v>40</v>
@@ -6139,10 +6151,10 @@
         <v>43</v>
       </c>
       <c r="R45" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="S45" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="T45" t="s">
         <v>46</v>
@@ -6172,36 +6184,36 @@
         <v>6</v>
       </c>
       <c r="AC45" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D46" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="E46" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F46" t="s">
         <v>34</v>
       </c>
       <c r="G46" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="H46" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="I46" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="J46" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K46">
         <v>34.3918</v>
@@ -6210,7 +6222,7 @@
         <v>125.1225</v>
       </c>
       <c r="M46" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N46" t="s">
         <v>40</v>
@@ -6225,13 +6237,13 @@
         <v>43</v>
       </c>
       <c r="R46" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="S46" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="T46" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U46" t="s">
         <v>48</v>
@@ -6258,36 +6270,36 @@
         <v>2</v>
       </c>
       <c r="AC46" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="47" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C47" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="D47" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E47" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F47" t="s">
         <v>34</v>
       </c>
       <c r="G47" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="H47" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="I47" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="J47" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K47">
         <v>33.2215</v>
@@ -6296,7 +6308,7 @@
         <v>128.8992</v>
       </c>
       <c r="M47" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N47" t="s">
         <v>40</v>
@@ -6311,13 +6323,13 @@
         <v>43</v>
       </c>
       <c r="R47" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="S47" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="T47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U47" t="s">
         <v>47</v>
@@ -6344,7 +6356,7 @@
         <v>8</v>
       </c>
       <c r="AC47" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="2:29" x14ac:dyDescent="0.25">
@@ -6352,28 +6364,28 @@
         <v>30</v>
       </c>
       <c r="C48" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D48" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="E48" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F48" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G48" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="H48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I48" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="J48" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="K48">
         <v>35.7971</v>
@@ -6382,7 +6394,7 @@
         <v>127.8331</v>
       </c>
       <c r="M48" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N48" t="s">
         <v>40</v>
@@ -6397,13 +6409,13 @@
         <v>43</v>
       </c>
       <c r="R48" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="S48" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="T48" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U48" t="s">
         <v>47</v>
@@ -6430,36 +6442,36 @@
         <v>4</v>
       </c>
       <c r="AC48" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="49" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C49" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D49" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="E49" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F49" t="s">
         <v>34</v>
       </c>
       <c r="G49" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="H49" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="I49" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="J49" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K49">
         <v>33.053</v>
@@ -6468,7 +6480,7 @@
         <v>129.1746</v>
       </c>
       <c r="M49" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N49" t="s">
         <v>40</v>
@@ -6483,13 +6495,13 @@
         <v>43</v>
       </c>
       <c r="R49" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="S49" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="T49" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="U49" t="s">
         <v>47</v>
@@ -6516,7 +6528,7 @@
         <v>4</v>
       </c>
       <c r="AC49" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="50" spans="2:29" x14ac:dyDescent="0.25">
@@ -6524,28 +6536,28 @@
         <v>30</v>
       </c>
       <c r="C50" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D50" t="s">
         <v>102</v>
       </c>
       <c r="E50" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G50" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="H50" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I50" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="J50" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="K50">
         <v>33.3235</v>
@@ -6554,7 +6566,7 @@
         <v>129.3361</v>
       </c>
       <c r="M50" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N50" t="s">
         <v>40</v>
@@ -6569,13 +6581,13 @@
         <v>43</v>
       </c>
       <c r="R50" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="S50" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="T50" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U50" t="s">
         <v>48</v>
@@ -6602,36 +6614,36 @@
         <v>8</v>
       </c>
       <c r="AC50" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E51" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F51" t="s">
         <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="H51" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I51" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="J51" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="K51">
         <v>36.5104</v>
@@ -6640,7 +6652,7 @@
         <v>127.4835</v>
       </c>
       <c r="M51" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N51" t="s">
         <v>40</v>
@@ -6655,10 +6667,10 @@
         <v>43</v>
       </c>
       <c r="R51" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="S51" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="T51" t="s">
         <v>91</v>
@@ -6688,7 +6700,7 @@
         <v>8</v>
       </c>
       <c r="AC51" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="2:29" x14ac:dyDescent="0.25">
@@ -6696,28 +6708,28 @@
         <v>30</v>
       </c>
       <c r="C52" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D52" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="E52" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F52" t="s">
         <v>34</v>
       </c>
       <c r="G52" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="H52" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="I52" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="J52" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="K52">
         <v>37.914</v>
@@ -6726,7 +6738,7 @@
         <v>126.6422</v>
       </c>
       <c r="M52" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N52" t="s">
         <v>40</v>
@@ -6741,13 +6753,13 @@
         <v>43</v>
       </c>
       <c r="R52" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="S52" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="T52" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U52" t="s">
         <v>47</v>
@@ -6774,36 +6786,36 @@
         <v>5</v>
       </c>
       <c r="AC52" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="D53" t="s">
         <v>102</v>
       </c>
       <c r="E53" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F53" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G53" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="H53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I53" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="J53" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="K53">
         <v>35.2756</v>
@@ -6812,7 +6824,7 @@
         <v>125.7547</v>
       </c>
       <c r="M53" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N53" t="s">
         <v>40</v>
@@ -6827,13 +6839,13 @@
         <v>43</v>
       </c>
       <c r="R53" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="S53" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="T53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U53" t="s">
         <v>48</v>
@@ -6860,36 +6872,36 @@
         <v>8</v>
       </c>
       <c r="AC53" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D54" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E54" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F54" t="s">
         <v>94</v>
       </c>
       <c r="G54" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="H54" t="s">
         <v>36</v>
       </c>
       <c r="I54" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="J54" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="K54">
         <v>36.4394</v>
@@ -6898,7 +6910,7 @@
         <v>125.9174</v>
       </c>
       <c r="M54" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N54" t="s">
         <v>40</v>
@@ -6913,13 +6925,13 @@
         <v>43</v>
       </c>
       <c r="R54" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="S54" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="T54" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U54" t="s">
         <v>48</v>
@@ -6946,36 +6958,36 @@
         <v>8</v>
       </c>
       <c r="AC54" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="55" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C55" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D55" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="E55" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F55" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G55" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="H55" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I55" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="J55" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="K55">
         <v>36.0231</v>
@@ -6984,7 +6996,7 @@
         <v>128.5973</v>
       </c>
       <c r="M55" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N55" t="s">
         <v>40</v>
@@ -6999,13 +7011,13 @@
         <v>43</v>
       </c>
       <c r="R55" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="S55" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="T55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U55" t="s">
         <v>47</v>
@@ -7032,7 +7044,7 @@
         <v>8</v>
       </c>
       <c r="AC55" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="2:29" x14ac:dyDescent="0.25">
@@ -7040,28 +7052,28 @@
         <v>91</v>
       </c>
       <c r="C56" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D56" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="E56" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F56" t="s">
         <v>34</v>
       </c>
       <c r="G56" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="H56" t="s">
         <v>36</v>
       </c>
       <c r="I56" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="J56" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="K56">
         <v>34.2019</v>
@@ -7070,7 +7082,7 @@
         <v>129.3204</v>
       </c>
       <c r="M56" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N56" t="s">
         <v>40</v>
@@ -7085,13 +7097,13 @@
         <v>43</v>
       </c>
       <c r="R56" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="S56" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="T56" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U56" t="s">
         <v>47</v>
@@ -7118,7 +7130,7 @@
         <v>4</v>
       </c>
       <c r="AC56" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="57" spans="2:29" x14ac:dyDescent="0.25">
@@ -7126,28 +7138,28 @@
         <v>46</v>
       </c>
       <c r="C57" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="D57" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="E57" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F57" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G57" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="H57" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="I57" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="J57" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="K57">
         <v>33.3671</v>
@@ -7156,7 +7168,7 @@
         <v>126.5762</v>
       </c>
       <c r="M57" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N57" t="s">
         <v>40</v>
@@ -7171,13 +7183,13 @@
         <v>43</v>
       </c>
       <c r="R57" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="S57" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="T57" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U57" t="s">
         <v>47</v>
@@ -7204,36 +7216,36 @@
         <v>7</v>
       </c>
       <c r="AC57" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C58" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D58" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="E58" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F58" t="s">
         <v>34</v>
       </c>
       <c r="G58" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="H58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I58" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="J58" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="K58">
         <v>37.4511</v>
@@ -7242,7 +7254,7 @@
         <v>128.8487</v>
       </c>
       <c r="M58" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N58" t="s">
         <v>40</v>
@@ -7257,13 +7269,13 @@
         <v>43</v>
       </c>
       <c r="R58" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="S58" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="T58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U58" t="s">
         <v>48</v>
@@ -7290,36 +7302,36 @@
         <v>8</v>
       </c>
       <c r="AC58" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="59" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C59" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="D59" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="E59" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F59" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G59" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="H59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I59" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="J59" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="K59">
         <v>37.0477</v>
@@ -7328,7 +7340,7 @@
         <v>128.0352</v>
       </c>
       <c r="M59" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N59" t="s">
         <v>40</v>
@@ -7343,13 +7355,13 @@
         <v>43</v>
       </c>
       <c r="R59" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="S59" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="T59" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U59" t="s">
         <v>47</v>
@@ -7376,36 +7388,36 @@
         <v>8</v>
       </c>
       <c r="AC59" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C60" t="s">
+        <v>430</v>
+      </c>
+      <c r="D60" t="s">
+        <v>431</v>
+      </c>
+      <c r="E60" t="s">
+        <v>424</v>
+      </c>
+      <c r="F60" t="s">
+        <v>155</v>
+      </c>
+      <c r="G60" t="s">
+        <v>432</v>
+      </c>
+      <c r="H60" t="s">
+        <v>433</v>
+      </c>
+      <c r="I60" t="s">
         <v>426</v>
       </c>
-      <c r="D60" t="s">
-        <v>427</v>
-      </c>
-      <c r="E60" t="s">
-        <v>420</v>
-      </c>
-      <c r="F60" t="s">
-        <v>151</v>
-      </c>
-      <c r="G60" t="s">
-        <v>428</v>
-      </c>
-      <c r="H60" t="s">
-        <v>429</v>
-      </c>
-      <c r="I60" t="s">
-        <v>422</v>
-      </c>
       <c r="J60" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="K60">
         <v>37.9661</v>
@@ -7414,7 +7426,7 @@
         <v>129.7871</v>
       </c>
       <c r="M60" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N60" t="s">
         <v>40</v>
@@ -7429,13 +7441,13 @@
         <v>43</v>
       </c>
       <c r="R60" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="S60" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="T60" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U60" t="s">
         <v>47</v>
@@ -7462,7 +7474,7 @@
         <v>2</v>
       </c>
       <c r="AC60" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="2:29" x14ac:dyDescent="0.25">
@@ -7470,28 +7482,28 @@
         <v>46</v>
       </c>
       <c r="C61" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="D61" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E61" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F61" t="s">
         <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="H61" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="I61" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="J61" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="K61">
         <v>36.5645</v>
@@ -7500,7 +7512,7 @@
         <v>125.2393</v>
       </c>
       <c r="M61" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N61" t="s">
         <v>40</v>
@@ -7515,13 +7527,13 @@
         <v>43</v>
       </c>
       <c r="R61" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="S61" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="T61" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U61" t="s">
         <v>47</v>
@@ -7548,36 +7560,36 @@
         <v>7</v>
       </c>
       <c r="AC61" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C62" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D62" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="E62" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F62" t="s">
         <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I62" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="J62" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="K62">
         <v>36.1006</v>
@@ -7586,7 +7598,7 @@
         <v>127.3951</v>
       </c>
       <c r="M62" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N62" t="s">
         <v>40</v>
@@ -7601,13 +7613,13 @@
         <v>43</v>
       </c>
       <c r="R62" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="S62" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="T62" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U62" t="s">
         <v>48</v>
@@ -7634,36 +7646,36 @@
         <v>4</v>
       </c>
       <c r="AC62" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="63" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D63" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="E63" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F63" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G63" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="H63" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I63" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="J63" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="K63">
         <v>33.2872</v>
@@ -7672,7 +7684,7 @@
         <v>127.3415</v>
       </c>
       <c r="M63" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N63" t="s">
         <v>40</v>
@@ -7687,13 +7699,13 @@
         <v>43</v>
       </c>
       <c r="R63" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="S63" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="T63" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U63" t="s">
         <v>48</v>
@@ -7720,7 +7732,7 @@
         <v>8</v>
       </c>
       <c r="AC63" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="2:29" x14ac:dyDescent="0.25">
@@ -7728,28 +7740,28 @@
         <v>46</v>
       </c>
       <c r="C64" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D64" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E64" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="F64" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G64" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="H64" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I64" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="J64" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="K64">
         <v>33.2174</v>
@@ -7758,7 +7770,7 @@
         <v>125.1306</v>
       </c>
       <c r="M64" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N64" t="s">
         <v>40</v>
@@ -7773,13 +7785,13 @@
         <v>43</v>
       </c>
       <c r="R64" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="S64" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="T64" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="U64" t="s">
         <v>47</v>
@@ -7806,7 +7818,7 @@
         <v>8</v>
       </c>
       <c r="AC64" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="2:29" x14ac:dyDescent="0.25">
@@ -7814,28 +7826,28 @@
         <v>30</v>
       </c>
       <c r="C65" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D65" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="E65" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="F65" t="s">
         <v>94</v>
       </c>
       <c r="G65" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H65" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="I65" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="J65" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="K65">
         <v>35.7787</v>
@@ -7844,7 +7856,7 @@
         <v>126.36</v>
       </c>
       <c r="M65" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N65" t="s">
         <v>40</v>
@@ -7859,13 +7871,13 @@
         <v>43</v>
       </c>
       <c r="R65" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="S65" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="T65" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U65" t="s">
         <v>47</v>
@@ -7892,7 +7904,7 @@
         <v>2</v>
       </c>
       <c r="AC65" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="2:29" x14ac:dyDescent="0.25">
@@ -7900,28 +7912,28 @@
         <v>30</v>
       </c>
       <c r="C66" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="D66" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="E66" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="F66" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G66" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="H66" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="I66" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="J66" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="K66">
         <v>35.8456</v>
@@ -7930,7 +7942,7 @@
         <v>127.4387</v>
       </c>
       <c r="M66" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N66" t="s">
         <v>40</v>
@@ -7945,10 +7957,10 @@
         <v>43</v>
       </c>
       <c r="R66" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="S66" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="T66" t="s">
         <v>30</v>
@@ -7978,7 +7990,7 @@
         <v>7</v>
       </c>
       <c r="AC66" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="2:29" x14ac:dyDescent="0.25">
@@ -7986,28 +7998,28 @@
         <v>99</v>
       </c>
       <c r="C67" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="D67" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="E67" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="F67" t="s">
         <v>94</v>
       </c>
       <c r="G67" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="H67" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="I67" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="J67" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="K67">
         <v>34.4245</v>
@@ -8016,7 +8028,7 @@
         <v>125.3401</v>
       </c>
       <c r="M67" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N67" t="s">
         <v>40</v>
@@ -8031,10 +8043,10 @@
         <v>43</v>
       </c>
       <c r="R67" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="S67" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="T67" t="s">
         <v>46</v>
@@ -8064,36 +8076,36 @@
         <v>8</v>
       </c>
       <c r="AC67" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C68" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="D68" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E68" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="F68" t="s">
         <v>34</v>
       </c>
       <c r="G68" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="H68" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I68" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="J68" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="K68">
         <v>35.719</v>
@@ -8102,7 +8114,7 @@
         <v>129.2306</v>
       </c>
       <c r="M68" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N68" t="s">
         <v>40</v>
@@ -8117,13 +8129,13 @@
         <v>43</v>
       </c>
       <c r="R68" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="S68" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="T68" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U68" t="s">
         <v>47</v>
@@ -8150,36 +8162,36 @@
         <v>4</v>
       </c>
       <c r="AC68" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="69" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C69" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="D69" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="E69" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="F69" t="s">
         <v>34</v>
       </c>
       <c r="G69" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="H69" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="I69" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="J69" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="K69">
         <v>37.9447</v>
@@ -8188,7 +8200,7 @@
         <v>128.6765</v>
       </c>
       <c r="M69" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N69" t="s">
         <v>40</v>
@@ -8203,13 +8215,13 @@
         <v>43</v>
       </c>
       <c r="R69" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="S69" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="T69" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U69" t="s">
         <v>48</v>
@@ -8236,36 +8248,36 @@
         <v>7</v>
       </c>
       <c r="AC69" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="70" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C70" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D70" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E70" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="F70" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G70" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="H70" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I70" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="J70" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="K70">
         <v>34.8636</v>
@@ -8274,7 +8286,7 @@
         <v>129.9567</v>
       </c>
       <c r="M70" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N70" t="s">
         <v>40</v>
@@ -8289,13 +8301,13 @@
         <v>43</v>
       </c>
       <c r="R70" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="S70" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="T70" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U70" t="s">
         <v>47</v>
@@ -8322,7 +8334,7 @@
         <v>4</v>
       </c>
       <c r="AC70" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="71" spans="2:29" x14ac:dyDescent="0.25">
@@ -8330,28 +8342,28 @@
         <v>30</v>
       </c>
       <c r="C71" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D71" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="E71" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="F71" t="s">
         <v>34</v>
       </c>
       <c r="G71" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="H71" t="s">
         <v>36</v>
       </c>
       <c r="I71" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="J71" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="K71">
         <v>36.3494</v>
@@ -8360,7 +8372,7 @@
         <v>127.5927</v>
       </c>
       <c r="M71" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N71" t="s">
         <v>40</v>
@@ -8375,10 +8387,10 @@
         <v>43</v>
       </c>
       <c r="R71" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="S71" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="T71" t="s">
         <v>30</v>
@@ -8408,7 +8420,7 @@
         <v>8</v>
       </c>
       <c r="AC71" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="72" spans="2:29" x14ac:dyDescent="0.25">
@@ -8416,28 +8428,28 @@
         <v>46</v>
       </c>
       <c r="C72" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="D72" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E72" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="F72" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G72" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="H72" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I72" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="J72" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="K72">
         <v>35.7125</v>
@@ -8446,7 +8458,7 @@
         <v>125.1675</v>
       </c>
       <c r="M72" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N72" t="s">
         <v>40</v>
@@ -8461,13 +8473,13 @@
         <v>43</v>
       </c>
       <c r="R72" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="S72" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="T72" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U72" t="s">
         <v>47</v>
@@ -8494,36 +8506,36 @@
         <v>2</v>
       </c>
       <c r="AC72" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C73" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="D73" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="E73" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="F73" t="s">
         <v>94</v>
       </c>
       <c r="G73" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="H73" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="I73" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="J73" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="K73">
         <v>37.1534</v>
@@ -8532,7 +8544,7 @@
         <v>125.1725</v>
       </c>
       <c r="M73" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N73" t="s">
         <v>40</v>
@@ -8547,13 +8559,13 @@
         <v>43</v>
       </c>
       <c r="R73" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="S73" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="T73" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U73" t="s">
         <v>47</v>
@@ -8580,7 +8592,7 @@
         <v>4</v>
       </c>
       <c r="AC73" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="74" spans="2:29" x14ac:dyDescent="0.25">
@@ -8588,28 +8600,28 @@
         <v>99</v>
       </c>
       <c r="C74" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="D74" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="E74" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="F74" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G74" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H74" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="I74" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="J74" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="K74">
         <v>35.7146</v>
@@ -8618,7 +8630,7 @@
         <v>125.3646</v>
       </c>
       <c r="M74" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N74" t="s">
         <v>40</v>
@@ -8633,13 +8645,13 @@
         <v>43</v>
       </c>
       <c r="R74" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="S74" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="T74" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U74" t="s">
         <v>48</v>
@@ -8666,36 +8678,36 @@
         <v>2</v>
       </c>
       <c r="AC74" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C75" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="D75" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E75" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="F75" t="s">
         <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="H75" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="I75" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="J75" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="K75">
         <v>33.3703</v>
@@ -8704,7 +8716,7 @@
         <v>128.9701</v>
       </c>
       <c r="M75" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N75" t="s">
         <v>40</v>
@@ -8719,13 +8731,13 @@
         <v>43</v>
       </c>
       <c r="R75" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="S75" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="T75" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U75" t="s">
         <v>47</v>
@@ -8752,7 +8764,7 @@
         <v>3</v>
       </c>
       <c r="AC75" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" spans="2:29" x14ac:dyDescent="0.25">
@@ -8760,28 +8772,28 @@
         <v>99</v>
       </c>
       <c r="C76" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="D76" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E76" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="F76" t="s">
         <v>94</v>
       </c>
       <c r="G76" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="H76" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I76" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="J76" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="K76">
         <v>37.9038</v>
@@ -8790,7 +8802,7 @@
         <v>128.3173</v>
       </c>
       <c r="M76" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N76" t="s">
         <v>40</v>
@@ -8805,13 +8817,13 @@
         <v>43</v>
       </c>
       <c r="R76" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="S76" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="T76" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U76" t="s">
         <v>47</v>
@@ -8838,7 +8850,7 @@
         <v>4</v>
       </c>
       <c r="AC76" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
     </row>
     <row r="77" spans="2:29" x14ac:dyDescent="0.25">
@@ -8846,28 +8858,28 @@
         <v>91</v>
       </c>
       <c r="C77" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="D77" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="E77" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="F77" t="s">
         <v>34</v>
       </c>
       <c r="G77" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="H77" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="I77" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="J77" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="K77">
         <v>34.9354</v>
@@ -8876,7 +8888,7 @@
         <v>125.5658</v>
       </c>
       <c r="M77" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N77" t="s">
         <v>40</v>
@@ -8891,13 +8903,13 @@
         <v>43</v>
       </c>
       <c r="R77" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="S77" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="T77" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U77" t="s">
         <v>48</v>
@@ -8924,7 +8936,7 @@
         <v>2</v>
       </c>
       <c r="AC77" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="78" spans="2:29" x14ac:dyDescent="0.25">
@@ -8932,28 +8944,28 @@
         <v>46</v>
       </c>
       <c r="C78" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="D78" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="E78" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="F78" t="s">
         <v>34</v>
       </c>
       <c r="G78" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="H78" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="I78" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="J78" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="K78">
         <v>37.9755</v>
@@ -8962,7 +8974,7 @@
         <v>125.3308</v>
       </c>
       <c r="M78" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N78" t="s">
         <v>40</v>
@@ -8977,13 +8989,13 @@
         <v>43</v>
       </c>
       <c r="R78" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="S78" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="T78" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U78" t="s">
         <v>48</v>
@@ -9010,36 +9022,36 @@
         <v>6</v>
       </c>
       <c r="AC78" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="79" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C79" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D79" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="E79" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="F79" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G79" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H79" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I79" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="J79" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="K79">
         <v>37.9866</v>
@@ -9048,7 +9060,7 @@
         <v>129.4469</v>
       </c>
       <c r="M79" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N79" t="s">
         <v>40</v>
@@ -9063,10 +9075,10 @@
         <v>43</v>
       </c>
       <c r="R79" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="S79" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="T79" t="s">
         <v>91</v>
@@ -9096,7 +9108,7 @@
         <v>2</v>
       </c>
       <c r="AC79" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="80" spans="2:29" x14ac:dyDescent="0.25">
@@ -9104,28 +9116,28 @@
         <v>46</v>
       </c>
       <c r="C80" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D80" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E80" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="F80" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G80" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="H80" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I80" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="J80" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="K80">
         <v>34.1483</v>
@@ -9134,7 +9146,7 @@
         <v>128.1302</v>
       </c>
       <c r="M80" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N80" t="s">
         <v>40</v>
@@ -9149,13 +9161,13 @@
         <v>43</v>
       </c>
       <c r="R80" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="S80" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="T80" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U80" t="s">
         <v>47</v>
@@ -9182,36 +9194,36 @@
         <v>8</v>
       </c>
       <c r="AC80" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="81" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C81" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="D81" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="E81" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="F81" t="s">
         <v>34</v>
       </c>
       <c r="G81" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="H81" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="I81" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="J81" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="K81">
         <v>34.6042</v>
@@ -9220,7 +9232,7 @@
         <v>129.4586</v>
       </c>
       <c r="M81" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N81" t="s">
         <v>40</v>
@@ -9235,13 +9247,13 @@
         <v>43</v>
       </c>
       <c r="R81" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="S81" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="T81" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U81" t="s">
         <v>48</v>
@@ -9268,36 +9280,36 @@
         <v>2</v>
       </c>
       <c r="AC81" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C82" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="D82" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="E82" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="F82" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G82" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="H82" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I82" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="J82" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="K82">
         <v>36.7288</v>
@@ -9306,7 +9318,7 @@
         <v>127.3562</v>
       </c>
       <c r="M82" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N82" t="s">
         <v>40</v>
@@ -9321,13 +9333,13 @@
         <v>43</v>
       </c>
       <c r="R82" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="S82" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="T82" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U82" t="s">
         <v>48</v>
@@ -9354,36 +9366,36 @@
         <v>3</v>
       </c>
       <c r="AC82" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="83" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C83" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="D83" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E83" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="F83" t="s">
         <v>34</v>
       </c>
       <c r="G83" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="H83" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I83" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="J83" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="K83">
         <v>34.5277</v>
@@ -9392,7 +9404,7 @@
         <v>127.6076</v>
       </c>
       <c r="M83" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N83" t="s">
         <v>40</v>
@@ -9407,10 +9419,10 @@
         <v>43</v>
       </c>
       <c r="R83" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="S83" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="T83" t="s">
         <v>46</v>
@@ -9440,36 +9452,36 @@
         <v>5</v>
       </c>
       <c r="AC83" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
     </row>
     <row r="84" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C84" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D84" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="E84" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="F84" t="s">
         <v>34</v>
       </c>
       <c r="G84" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="H84" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="I84" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="J84" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="K84">
         <v>36.5609</v>
@@ -9478,7 +9490,7 @@
         <v>125.4136</v>
       </c>
       <c r="M84" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N84" t="s">
         <v>40</v>
@@ -9493,13 +9505,13 @@
         <v>43</v>
       </c>
       <c r="R84" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="S84" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="T84" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U84" t="s">
         <v>47</v>
@@ -9526,7 +9538,7 @@
         <v>2</v>
       </c>
       <c r="AC84" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="85" spans="2:29" x14ac:dyDescent="0.25">
@@ -9534,28 +9546,28 @@
         <v>99</v>
       </c>
       <c r="C85" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="D85" t="s">
         <v>102</v>
       </c>
       <c r="E85" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="F85" t="s">
         <v>34</v>
       </c>
       <c r="G85" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="H85" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I85" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="J85" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="K85">
         <v>36.0363</v>
@@ -9564,7 +9576,7 @@
         <v>125.7569</v>
       </c>
       <c r="M85" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N85" t="s">
         <v>40</v>
@@ -9579,13 +9591,13 @@
         <v>43</v>
       </c>
       <c r="R85" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="S85" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="T85" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U85" t="s">
         <v>47</v>
@@ -9612,36 +9624,36 @@
         <v>8</v>
       </c>
       <c r="AC85" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="86" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C86" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="D86" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="E86" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="F86" t="s">
         <v>94</v>
       </c>
       <c r="G86" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="H86" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I86" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="J86" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="K86">
         <v>36.8853</v>
@@ -9650,7 +9662,7 @@
         <v>126.7915</v>
       </c>
       <c r="M86" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N86" t="s">
         <v>40</v>
@@ -9665,13 +9677,13 @@
         <v>43</v>
       </c>
       <c r="R86" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="S86" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="T86" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U86" t="s">
         <v>47</v>
@@ -9698,36 +9710,36 @@
         <v>5</v>
       </c>
       <c r="AC86" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="87" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C87" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="D87" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="E87" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="F87" t="s">
         <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="H87" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="I87" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="J87" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="K87">
         <v>33.0042</v>
@@ -9736,7 +9748,7 @@
         <v>129.5693</v>
       </c>
       <c r="M87" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N87" t="s">
         <v>40</v>
@@ -9751,13 +9763,13 @@
         <v>43</v>
       </c>
       <c r="R87" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="S87" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="T87" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U87" t="s">
         <v>47</v>
@@ -9784,36 +9796,36 @@
         <v>5</v>
       </c>
       <c r="AC87" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="88" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C88" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D88" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="E88" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="F88" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G88" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="H88" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="I88" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="J88" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="K88">
         <v>34.3892</v>
@@ -9822,7 +9834,7 @@
         <v>127.9828</v>
       </c>
       <c r="M88" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N88" t="s">
         <v>40</v>
@@ -9837,13 +9849,13 @@
         <v>43</v>
       </c>
       <c r="R88" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="S88" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="T88" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U88" t="s">
         <v>47</v>
@@ -9870,36 +9882,36 @@
         <v>7</v>
       </c>
       <c r="AC88" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="89" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C89" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="D89" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E89" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="F89" t="s">
         <v>94</v>
       </c>
       <c r="G89" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="H89" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I89" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="J89" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="K89">
         <v>35.3348</v>
@@ -9908,7 +9920,7 @@
         <v>125.0458</v>
       </c>
       <c r="M89" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N89" t="s">
         <v>40</v>
@@ -9923,13 +9935,13 @@
         <v>43</v>
       </c>
       <c r="R89" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="S89" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="T89" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U89" t="s">
         <v>47</v>
@@ -9956,36 +9968,36 @@
         <v>8</v>
       </c>
       <c r="AC89" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
     </row>
     <row r="90" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C90" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="D90" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="E90" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="F90" t="s">
         <v>34</v>
       </c>
       <c r="G90" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="H90" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I90" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="J90" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="K90">
         <v>37.9973</v>
@@ -9994,7 +10006,7 @@
         <v>126.6347</v>
       </c>
       <c r="M90" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N90" t="s">
         <v>40</v>
@@ -10009,13 +10021,13 @@
         <v>43</v>
       </c>
       <c r="R90" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="S90" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="T90" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U90" t="s">
         <v>48</v>
@@ -10042,7 +10054,7 @@
         <v>5</v>
       </c>
       <c r="AC90" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="91" spans="2:29" x14ac:dyDescent="0.25">
@@ -10050,28 +10062,28 @@
         <v>91</v>
       </c>
       <c r="C91" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D91" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="E91" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="F91" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G91" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="H91" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="I91" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="J91" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="K91">
         <v>35.676</v>
@@ -10080,7 +10092,7 @@
         <v>126.7478</v>
       </c>
       <c r="M91" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N91" t="s">
         <v>40</v>
@@ -10095,13 +10107,13 @@
         <v>43</v>
       </c>
       <c r="R91" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="S91" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="T91" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U91" t="s">
         <v>48</v>
@@ -10128,7 +10140,7 @@
         <v>4</v>
       </c>
       <c r="AC91" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="92" spans="2:29" x14ac:dyDescent="0.25">
@@ -10136,28 +10148,28 @@
         <v>91</v>
       </c>
       <c r="C92" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="D92" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="E92" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="F92" t="s">
         <v>34</v>
       </c>
       <c r="G92" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="H92" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="I92" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="J92" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="K92">
         <v>35.9628</v>
@@ -10166,7 +10178,7 @@
         <v>126.2277</v>
       </c>
       <c r="M92" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N92" t="s">
         <v>40</v>
@@ -10181,13 +10193,13 @@
         <v>43</v>
       </c>
       <c r="R92" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="S92" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="T92" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U92" t="s">
         <v>48</v>
@@ -10214,7 +10226,7 @@
         <v>4</v>
       </c>
       <c r="AC92" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="93" spans="2:29" x14ac:dyDescent="0.25">
@@ -10222,28 +10234,28 @@
         <v>91</v>
       </c>
       <c r="C93" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="D93" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="E93" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="F93" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G93" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="H93" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I93" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="J93" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="K93">
         <v>36.3059</v>
@@ -10252,7 +10264,7 @@
         <v>125.5356</v>
       </c>
       <c r="M93" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N93" t="s">
         <v>40</v>
@@ -10267,13 +10279,13 @@
         <v>43</v>
       </c>
       <c r="R93" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="S93" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="T93" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U93" t="s">
         <v>48</v>
@@ -10300,36 +10312,36 @@
         <v>7</v>
       </c>
       <c r="AC93" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
     </row>
     <row r="94" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C94" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="D94" t="s">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="F94" t="s">
         <v>34</v>
       </c>
       <c r="G94" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="H94" t="s">
         <v>36</v>
       </c>
       <c r="I94" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="J94" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="K94">
         <v>34.0533</v>
@@ -10338,7 +10350,7 @@
         <v>126.3637</v>
       </c>
       <c r="M94" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N94" t="s">
         <v>40</v>
@@ -10353,13 +10365,13 @@
         <v>43</v>
       </c>
       <c r="R94" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="S94" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="T94" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U94" t="s">
         <v>47</v>
@@ -10386,7 +10398,7 @@
         <v>8</v>
       </c>
       <c r="AC94" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="95" spans="2:29" x14ac:dyDescent="0.25">
@@ -10394,28 +10406,28 @@
         <v>30</v>
       </c>
       <c r="C95" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="D95" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="E95" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="F95" t="s">
         <v>34</v>
       </c>
       <c r="G95" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="H95" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="I95" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="J95" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="K95">
         <v>36.9623</v>
@@ -10424,7 +10436,7 @@
         <v>129.1004</v>
       </c>
       <c r="M95" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N95" t="s">
         <v>40</v>
@@ -10439,13 +10451,13 @@
         <v>43</v>
       </c>
       <c r="R95" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="S95" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="T95" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U95" t="s">
         <v>47</v>
@@ -10472,7 +10484,7 @@
         <v>3</v>
       </c>
       <c r="AC95" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="96" spans="2:29" x14ac:dyDescent="0.25">
@@ -10480,28 +10492,28 @@
         <v>46</v>
       </c>
       <c r="C96" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="D96" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="E96" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="F96" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G96" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="H96" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="I96" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="J96" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="K96">
         <v>36.3615</v>
@@ -10510,7 +10522,7 @@
         <v>128.9758</v>
       </c>
       <c r="M96" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N96" t="s">
         <v>40</v>
@@ -10525,13 +10537,13 @@
         <v>43</v>
       </c>
       <c r="R96" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="S96" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="T96" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U96" t="s">
         <v>47</v>
@@ -10558,36 +10570,36 @@
         <v>2</v>
       </c>
       <c r="AC96" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="97" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C97" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="D97" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="E97" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="F97" t="s">
         <v>94</v>
       </c>
       <c r="G97" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="H97" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="I97" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="J97" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="K97">
         <v>36.718</v>
@@ -10596,7 +10608,7 @@
         <v>128.3024</v>
       </c>
       <c r="M97" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N97" t="s">
         <v>40</v>
@@ -10611,13 +10623,13 @@
         <v>43</v>
       </c>
       <c r="R97" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="S97" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="T97" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U97" t="s">
         <v>47</v>
@@ -10644,36 +10656,36 @@
         <v>4</v>
       </c>
       <c r="AC97" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="98" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C98" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="D98" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E98" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="F98" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G98" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="H98" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="I98" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="J98" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="K98">
         <v>33.1753</v>
@@ -10682,7 +10694,7 @@
         <v>127.3642</v>
       </c>
       <c r="M98" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N98" t="s">
         <v>40</v>
@@ -10697,13 +10709,13 @@
         <v>43</v>
       </c>
       <c r="R98" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="S98" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="T98" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U98" t="s">
         <v>48</v>
@@ -10730,7 +10742,7 @@
         <v>5</v>
       </c>
       <c r="AC98" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="99" spans="2:29" x14ac:dyDescent="0.25">
@@ -10738,28 +10750,28 @@
         <v>46</v>
       </c>
       <c r="C99" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D99" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="E99" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="F99" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G99" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="H99" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="I99" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="J99" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="K99">
         <v>34.5835</v>
@@ -10768,7 +10780,7 @@
         <v>125.4598</v>
       </c>
       <c r="M99" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N99" t="s">
         <v>40</v>
@@ -10783,13 +10795,13 @@
         <v>43</v>
       </c>
       <c r="R99" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="S99" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="T99" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U99" t="s">
         <v>48</v>
@@ -10816,36 +10828,36 @@
         <v>5</v>
       </c>
       <c r="AC99" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
     </row>
     <row r="100" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C100" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="D100" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="E100" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="F100" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G100" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="H100" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I100" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="J100" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="K100">
         <v>34.9238</v>
@@ -10854,7 +10866,7 @@
         <v>125.9641</v>
       </c>
       <c r="M100" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N100" t="s">
         <v>40</v>
@@ -10869,10 +10881,10 @@
         <v>43</v>
       </c>
       <c r="R100" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="S100" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="T100" t="s">
         <v>99</v>
@@ -10902,36 +10914,36 @@
         <v>5</v>
       </c>
       <c r="AC100" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="101" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C101" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="D101" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="E101" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="F101" t="s">
         <v>94</v>
       </c>
       <c r="G101" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="H101" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I101" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="J101" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="K101">
         <v>35.5176</v>
@@ -10940,7 +10952,7 @@
         <v>125.328</v>
       </c>
       <c r="M101" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N101" t="s">
         <v>40</v>
@@ -10955,13 +10967,13 @@
         <v>43</v>
       </c>
       <c r="R101" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="S101" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="T101" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U101" t="s">
         <v>48</v>
@@ -10988,36 +11000,36 @@
         <v>8</v>
       </c>
       <c r="AC101" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="102" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C102" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="D102" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E102" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="F102" t="s">
         <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="H102" t="s">
         <v>36</v>
       </c>
       <c r="I102" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="J102" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="K102">
         <v>36.9386</v>
@@ -11026,7 +11038,7 @@
         <v>125.7709</v>
       </c>
       <c r="M102" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N102" t="s">
         <v>40</v>
@@ -11041,13 +11053,13 @@
         <v>43</v>
       </c>
       <c r="R102" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="S102" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="T102" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U102" t="s">
         <v>48</v>
@@ -11074,36 +11086,36 @@
         <v>2</v>
       </c>
       <c r="AC102" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="103" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C103" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D103" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="E103" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="F103" t="s">
         <v>34</v>
       </c>
       <c r="G103" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="H103" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="I103" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="J103" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="K103">
         <v>37.3196</v>
@@ -11112,7 +11124,7 @@
         <v>128.3591</v>
       </c>
       <c r="M103" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N103" t="s">
         <v>40</v>
@@ -11127,13 +11139,13 @@
         <v>43</v>
       </c>
       <c r="R103" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="S103" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="T103" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U103" t="s">
         <v>47</v>
@@ -11160,11 +11172,11 @@
         <v>5</v>
       </c>
       <c r="AC103" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/server/test-data/test-units-100.xlsx
+++ b/server/test-data/test-units-100.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2397" uniqueCount="712">
   <si>
     <t>부대 교육 정보 업로드</t>
   </si>
@@ -349,33 +349,33 @@
     <t>유성구</t>
   </si>
   <si>
+    <t>송재원</t>
+  </si>
+  <si>
+    <t>대전광역시</t>
+  </si>
+  <si>
+    <t>대전광역시 유성구 군사로 428번길</t>
+  </si>
+  <si>
+    <t>2025-02-02, 2025-02-03</t>
+  </si>
+  <si>
+    <t>010-3769-8803</t>
+  </si>
+  <si>
+    <t>재원75@army.mil.kr</t>
+  </si>
+  <si>
+    <t>제50기갑여단</t>
+  </si>
+  <si>
+    <t>장흥군</t>
+  </si>
+  <si>
     <t>2025-02-06</t>
   </si>
   <si>
-    <t>송재원</t>
-  </si>
-  <si>
-    <t>대전광역시</t>
-  </si>
-  <si>
-    <t>대전광역시 유성구 군사로 428번길</t>
-  </si>
-  <si>
-    <t>2025-02-03, 2025-02-04</t>
-  </si>
-  <si>
-    <t>010-3769-8803</t>
-  </si>
-  <si>
-    <t>재원75@army.mil.kr</t>
-  </si>
-  <si>
-    <t>제50기갑여단</t>
-  </si>
-  <si>
-    <t>장흥군</t>
-  </si>
-  <si>
     <t>조지후</t>
   </si>
   <si>
@@ -385,6 +385,9 @@
     <t>전라남도 장흥군 군사로 1번길</t>
   </si>
   <si>
+    <t>2025-02-02, 2025-02-04, 2025-02-05</t>
+  </si>
+  <si>
     <t>010-7722-2214</t>
   </si>
   <si>
@@ -397,54 +400,63 @@
     <t>남구</t>
   </si>
   <si>
+    <t>2025-02-07</t>
+  </si>
+  <si>
+    <t>박승현</t>
+  </si>
+  <si>
+    <t>대구광역시 남구 군사로 477번길</t>
+  </si>
+  <si>
+    <t>2025-02-02, 2025-02-03, 2025-02-04, 2025-02-05</t>
+  </si>
+  <si>
+    <t>010-9748-6220</t>
+  </si>
+  <si>
+    <t>승현9@army.mil.kr</t>
+  </si>
+  <si>
+    <t>제21보병사단</t>
+  </si>
+  <si>
+    <t>신안군</t>
+  </si>
+  <si>
+    <t>임동현</t>
+  </si>
+  <si>
+    <t>전라남도 신안군 군사로 658번길</t>
+  </si>
+  <si>
+    <t>2025-02-01, 2025-02-03, 2025-02-05</t>
+  </si>
+  <si>
+    <t>010-3322-6362</t>
+  </si>
+  <si>
+    <t>동현33@navy.mil.kr</t>
+  </si>
+  <si>
+    <t>특이사항 12</t>
+  </si>
+  <si>
+    <t>제27전투비행단</t>
+  </si>
+  <si>
+    <t>보성군</t>
+  </si>
+  <si>
     <t>2025-02-17</t>
   </si>
   <si>
-    <t>박승현</t>
+    <t>강수호</t>
   </si>
   <si>
     <t>2025-02-15</t>
   </si>
   <si>
-    <t>대구광역시 남구 군사로 477번길</t>
-  </si>
-  <si>
-    <t>010-9748-6220</t>
-  </si>
-  <si>
-    <t>승현9@army.mil.kr</t>
-  </si>
-  <si>
-    <t>제21보병사단</t>
-  </si>
-  <si>
-    <t>신안군</t>
-  </si>
-  <si>
-    <t>임동현</t>
-  </si>
-  <si>
-    <t>전라남도 신안군 군사로 658번길</t>
-  </si>
-  <si>
-    <t>010-3322-6362</t>
-  </si>
-  <si>
-    <t>동현33@navy.mil.kr</t>
-  </si>
-  <si>
-    <t>특이사항 12</t>
-  </si>
-  <si>
-    <t>제27전투비행단</t>
-  </si>
-  <si>
-    <t>보성군</t>
-  </si>
-  <si>
-    <t>강수호</t>
-  </si>
-  <si>
     <t>전라남도 보성군 군사로 841번길</t>
   </si>
   <si>
@@ -2087,6 +2099,54 @@
   </si>
   <si>
     <t>현우5@navy.mil.kr</t>
+  </si>
+  <si>
+    <t>메인강당</t>
+  </si>
+  <si>
+    <t>다중교육장소테스트부대1</t>
+  </si>
+  <si>
+    <t>서울</t>
+  </si>
+  <si>
+    <t>육군</t>
+  </si>
+  <si>
+    <t>담당관테스트</t>
+  </si>
+  <si>
+    <t>서울특별시 강남구 테스트로 123</t>
+  </si>
+  <si>
+    <t>보조강당</t>
+  </si>
+  <si>
+    <t>대회의실</t>
+  </si>
+  <si>
+    <t>다중교육장소테스트부대2</t>
+  </si>
+  <si>
+    <t>소회의실A</t>
+  </si>
+  <si>
+    <t>소회의실B</t>
+  </si>
+  <si>
+    <t>강당1</t>
+  </si>
+  <si>
+    <t>다중교육장소테스트부대3</t>
+  </si>
+  <si>
+    <t>강당2</t>
+  </si>
+  <si>
+    <t>야외훈련장</t>
+  </si>
+  <si>
+    <t>세미나실</t>
   </si>
 </sst>
 </file>
@@ -2473,7 +2533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC103"/>
+  <dimension ref="A1:AC113"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="2" max="29" width="18" customWidth="1"/>
@@ -3274,22 +3334,22 @@
         <v>111</v>
       </c>
       <c r="E12" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
       </c>
       <c r="G12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" t="s">
         <v>113</v>
-      </c>
-      <c r="H12" t="s">
-        <v>114</v>
       </c>
       <c r="I12" t="s">
         <v>37</v>
       </c>
       <c r="J12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K12">
         <v>36.815</v>
@@ -3298,7 +3358,7 @@
         <v>125.6109</v>
       </c>
       <c r="M12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N12" t="s">
         <v>40</v>
@@ -3313,10 +3373,10 @@
         <v>43</v>
       </c>
       <c r="R12" t="s">
+        <v>116</v>
+      </c>
+      <c r="S12" t="s">
         <v>117</v>
-      </c>
-      <c r="S12" t="s">
-        <v>118</v>
       </c>
       <c r="T12" t="s">
         <v>49</v>
@@ -3354,13 +3414,13 @@
         <v>57</v>
       </c>
       <c r="C13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" t="s">
         <v>119</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>120</v>
-      </c>
-      <c r="E13" t="s">
-        <v>33</v>
       </c>
       <c r="F13" t="s">
         <v>34</v>
@@ -3384,7 +3444,7 @@
         <v>129.8128</v>
       </c>
       <c r="M13" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="N13" t="s">
         <v>40</v>
@@ -3399,10 +3459,10 @@
         <v>43</v>
       </c>
       <c r="R13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="S13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T13" t="s">
         <v>49</v>
@@ -3440,25 +3500,25 @@
         <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F14" t="s">
         <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H14" t="s">
         <v>105</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>37</v>
       </c>
       <c r="J14" t="s">
         <v>131</v>
@@ -3470,7 +3530,7 @@
         <v>126.8319</v>
       </c>
       <c r="M14" t="s">
-        <v>49</v>
+        <v>132</v>
       </c>
       <c r="N14" t="s">
         <v>40</v>
@@ -3485,10 +3545,10 @@
         <v>43</v>
       </c>
       <c r="R14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T14" t="s">
         <v>49</v>
@@ -3526,28 +3586,28 @@
         <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E15" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F15" t="s">
         <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H15" t="s">
         <v>122</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
+        <v>37</v>
       </c>
       <c r="J15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K15">
         <v>34.699</v>
@@ -3556,7 +3616,7 @@
         <v>127.5089</v>
       </c>
       <c r="M15" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="N15" t="s">
         <v>40</v>
@@ -3571,10 +3631,10 @@
         <v>43</v>
       </c>
       <c r="R15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="S15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="T15" t="s">
         <v>49</v>
@@ -3604,7 +3664,7 @@
         <v>6</v>
       </c>
       <c r="AC15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.25">
@@ -3612,28 +3672,28 @@
         <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D16" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E16" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="F16" t="s">
         <v>94</v>
       </c>
       <c r="G16" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H16" t="s">
         <v>122</v>
       </c>
       <c r="I16" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="J16" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K16">
         <v>33.5549</v>
@@ -3657,10 +3717,10 @@
         <v>43</v>
       </c>
       <c r="R16" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="S16" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="T16" t="s">
         <v>49</v>
@@ -3698,28 +3758,28 @@
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D17" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E17" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="F17" t="s">
         <v>77</v>
       </c>
       <c r="G17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I17" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="J17" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K17">
         <v>33.9618</v>
@@ -3743,10 +3803,10 @@
         <v>43</v>
       </c>
       <c r="R17" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="S17" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="T17" t="s">
         <v>49</v>
@@ -3784,28 +3844,28 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D18" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E18" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="F18" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G18" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H18" t="s">
         <v>53</v>
       </c>
       <c r="I18" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="J18" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K18">
         <v>36.7795</v>
@@ -3829,10 +3889,10 @@
         <v>43</v>
       </c>
       <c r="R18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="S18" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="T18" t="s">
         <v>66</v>
@@ -3870,28 +3930,28 @@
         <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D19" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E19" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F19" t="s">
         <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H19" t="s">
         <v>70</v>
       </c>
       <c r="I19" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J19" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="K19">
         <v>35.3862</v>
@@ -3915,10 +3975,10 @@
         <v>43</v>
       </c>
       <c r="R19" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="S19" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="T19" t="s">
         <v>49</v>
@@ -3956,28 +4016,28 @@
         <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D20" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E20" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F20" t="s">
         <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H20" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="I20" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J20" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K20">
         <v>36.2281</v>
@@ -4001,10 +4061,10 @@
         <v>43</v>
       </c>
       <c r="R20" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="S20" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="T20" t="s">
         <v>99</v>
@@ -4042,28 +4102,28 @@
         <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D21" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E21" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F21" t="s">
         <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H21" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I21" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J21" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K21">
         <v>35.659</v>
@@ -4087,10 +4147,10 @@
         <v>43</v>
       </c>
       <c r="R21" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="S21" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="T21" t="s">
         <v>49</v>
@@ -4128,28 +4188,28 @@
         <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D22" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E22" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F22" t="s">
         <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I22" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J22" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K22">
         <v>35.6441</v>
@@ -4173,10 +4233,10 @@
         <v>43</v>
       </c>
       <c r="R22" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="S22" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="T22" t="s">
         <v>49</v>
@@ -4211,31 +4271,31 @@
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C23" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D23" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E23" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F23" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G23" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H23" t="s">
         <v>70</v>
       </c>
       <c r="I23" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J23" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K23">
         <v>34.1395</v>
@@ -4259,10 +4319,10 @@
         <v>43</v>
       </c>
       <c r="R23" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="S23" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="T23" t="s">
         <v>91</v>
@@ -4300,28 +4360,28 @@
         <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D24" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E24" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F24" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G24" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H24" t="s">
         <v>122</v>
       </c>
       <c r="I24" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="J24" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K24">
         <v>37.5569</v>
@@ -4345,10 +4405,10 @@
         <v>43</v>
       </c>
       <c r="R24" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="S24" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="T24" t="s">
         <v>58</v>
@@ -4386,28 +4446,28 @@
         <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D25" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E25" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F25" t="s">
         <v>94</v>
       </c>
       <c r="G25" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H25" t="s">
         <v>53</v>
       </c>
       <c r="I25" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="J25" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K25">
         <v>34.9351</v>
@@ -4431,10 +4491,10 @@
         <v>43</v>
       </c>
       <c r="R25" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="S25" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="T25" t="s">
         <v>49</v>
@@ -4472,28 +4532,28 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D26" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E26" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F26" t="s">
         <v>34</v>
       </c>
       <c r="G26" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H26" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="I26" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="J26" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K26">
         <v>34.4023</v>
@@ -4517,10 +4577,10 @@
         <v>43</v>
       </c>
       <c r="R26" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="S26" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="T26" t="s">
         <v>74</v>
@@ -4558,28 +4618,28 @@
         <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D27" t="s">
         <v>93</v>
       </c>
       <c r="E27" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F27" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G27" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H27" t="s">
         <v>36</v>
       </c>
       <c r="I27" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="J27" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="K27">
         <v>36.3441</v>
@@ -4603,10 +4663,10 @@
         <v>43</v>
       </c>
       <c r="R27" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="S27" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="T27" t="s">
         <v>91</v>
@@ -4644,28 +4704,28 @@
         <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D28" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E28" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F28" t="s">
         <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H28" t="s">
         <v>87</v>
       </c>
       <c r="I28" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="J28" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K28">
         <v>33.9116</v>
@@ -4689,10 +4749,10 @@
         <v>43</v>
       </c>
       <c r="R28" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="S28" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="T28" t="s">
         <v>57</v>
@@ -4722,7 +4782,7 @@
         <v>7</v>
       </c>
       <c r="AC28" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="2:29" x14ac:dyDescent="0.25">
@@ -4730,28 +4790,28 @@
         <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D29" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E29" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F29" t="s">
         <v>34</v>
       </c>
       <c r="G29" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H29" t="s">
         <v>70</v>
       </c>
       <c r="I29" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J29" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="K29">
         <v>35.5139</v>
@@ -4775,10 +4835,10 @@
         <v>43</v>
       </c>
       <c r="R29" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="S29" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="T29" t="s">
         <v>49</v>
@@ -4816,28 +4876,28 @@
         <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D30" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E30" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F30" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G30" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="H30" t="s">
         <v>87</v>
       </c>
       <c r="I30" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J30" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K30">
         <v>33.2376</v>
@@ -4861,10 +4921,10 @@
         <v>43</v>
       </c>
       <c r="R30" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="S30" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="T30" t="s">
         <v>49</v>
@@ -4905,25 +4965,25 @@
         <v>59</v>
       </c>
       <c r="D31" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E31" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F31" t="s">
         <v>34</v>
       </c>
       <c r="G31" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H31" t="s">
         <v>70</v>
       </c>
       <c r="I31" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J31" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="K31">
         <v>34.3877</v>
@@ -4947,10 +5007,10 @@
         <v>43</v>
       </c>
       <c r="R31" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="S31" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="T31" t="s">
         <v>49</v>
@@ -4988,28 +5048,28 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D32" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E32" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F32" t="s">
         <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="H32" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I32" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J32" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="K32">
         <v>34.25</v>
@@ -5033,10 +5093,10 @@
         <v>43</v>
       </c>
       <c r="R32" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="S32" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="T32" t="s">
         <v>58</v>
@@ -5074,28 +5134,28 @@
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D33" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E33" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F33" t="s">
         <v>94</v>
       </c>
       <c r="G33" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H33" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I33" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J33" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="K33">
         <v>34.668</v>
@@ -5119,10 +5179,10 @@
         <v>43</v>
       </c>
       <c r="R33" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="S33" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="T33" t="s">
         <v>49</v>
@@ -5152,7 +5212,7 @@
         <v>3</v>
       </c>
       <c r="AC33" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="34" spans="2:29" x14ac:dyDescent="0.25">
@@ -5160,28 +5220,28 @@
         <v>66</v>
       </c>
       <c r="C34" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D34" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E34" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F34" t="s">
         <v>77</v>
       </c>
       <c r="G34" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H34" t="s">
         <v>87</v>
       </c>
       <c r="I34" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="J34" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="K34">
         <v>34.02</v>
@@ -5205,10 +5265,10 @@
         <v>43</v>
       </c>
       <c r="R34" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="S34" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="T34" t="s">
         <v>49</v>
@@ -5246,28 +5306,28 @@
         <v>58</v>
       </c>
       <c r="C35" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D35" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E35" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F35" t="s">
         <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="H35" t="s">
         <v>70</v>
       </c>
       <c r="I35" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="J35" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="K35">
         <v>36.0861</v>
@@ -5291,10 +5351,10 @@
         <v>43</v>
       </c>
       <c r="R35" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="S35" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="T35" t="s">
         <v>30</v>
@@ -5329,31 +5389,31 @@
     </row>
     <row r="36" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C36" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D36" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E36" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F36" t="s">
         <v>77</v>
       </c>
       <c r="G36" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="H36" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="I36" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="J36" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K36">
         <v>36.6343</v>
@@ -5377,13 +5437,13 @@
         <v>43</v>
       </c>
       <c r="R36" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="S36" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="T36" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="U36" t="s">
         <v>48</v>
@@ -5410,7 +5470,7 @@
         <v>5</v>
       </c>
       <c r="AC36" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37" spans="2:29" x14ac:dyDescent="0.25">
@@ -5418,28 +5478,28 @@
         <v>66</v>
       </c>
       <c r="C37" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D37" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E37" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F37" t="s">
         <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H37" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="I37" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="J37" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K37">
         <v>34.5218</v>
@@ -5463,10 +5523,10 @@
         <v>43</v>
       </c>
       <c r="R37" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="S37" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="T37" t="s">
         <v>49</v>
@@ -5504,28 +5564,28 @@
         <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D38" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E38" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F38" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G38" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H38" t="s">
         <v>62</v>
       </c>
       <c r="I38" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="J38" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K38">
         <v>34.7125</v>
@@ -5549,10 +5609,10 @@
         <v>43</v>
       </c>
       <c r="R38" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="S38" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="T38" t="s">
         <v>49</v>
@@ -5590,28 +5650,28 @@
         <v>99</v>
       </c>
       <c r="C39" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D39" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E39" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F39" t="s">
         <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="H39" t="s">
         <v>87</v>
       </c>
       <c r="I39" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="J39" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K39">
         <v>37.9662</v>
@@ -5635,10 +5695,10 @@
         <v>43</v>
       </c>
       <c r="R39" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="S39" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="T39" t="s">
         <v>30</v>
@@ -5668,7 +5728,7 @@
         <v>4</v>
       </c>
       <c r="AC39" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="2:29" x14ac:dyDescent="0.25">
@@ -5676,28 +5736,28 @@
         <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D40" t="s">
         <v>102</v>
       </c>
       <c r="E40" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F40" t="s">
         <v>85</v>
       </c>
       <c r="G40" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="H40" t="s">
         <v>87</v>
       </c>
       <c r="I40" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="J40" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K40">
         <v>35.2392</v>
@@ -5721,10 +5781,10 @@
         <v>43</v>
       </c>
       <c r="R40" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="S40" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="T40" t="s">
         <v>49</v>
@@ -5754,7 +5814,7 @@
         <v>6</v>
       </c>
       <c r="AC40" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="41" spans="2:29" x14ac:dyDescent="0.25">
@@ -5762,28 +5822,28 @@
         <v>91</v>
       </c>
       <c r="C41" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D41" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E41" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F41" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G41" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="H41" t="s">
         <v>87</v>
       </c>
       <c r="I41" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="J41" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K41">
         <v>34.8877</v>
@@ -5807,10 +5867,10 @@
         <v>43</v>
       </c>
       <c r="R41" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="S41" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="T41" t="s">
         <v>49</v>
@@ -5848,28 +5908,28 @@
         <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D42" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="E42" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F42" t="s">
         <v>94</v>
       </c>
       <c r="G42" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="H42" t="s">
         <v>122</v>
       </c>
       <c r="I42" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="J42" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="K42">
         <v>34.9565</v>
@@ -5893,10 +5953,10 @@
         <v>43</v>
       </c>
       <c r="R42" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="S42" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="T42" t="s">
         <v>49</v>
@@ -5926,7 +5986,7 @@
         <v>5</v>
       </c>
       <c r="AC42" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="43" spans="2:29" x14ac:dyDescent="0.25">
@@ -5934,28 +5994,28 @@
         <v>57</v>
       </c>
       <c r="C43" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D43" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E43" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F43" t="s">
         <v>77</v>
       </c>
       <c r="G43" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="H43" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="I43" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="J43" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="K43">
         <v>33.9553</v>
@@ -5979,10 +6039,10 @@
         <v>43</v>
       </c>
       <c r="R43" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="S43" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="T43" t="s">
         <v>46</v>
@@ -6017,31 +6077,31 @@
     </row>
     <row r="44" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C44" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D44" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="E44" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F44" t="s">
         <v>94</v>
       </c>
       <c r="G44" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="H44" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="I44" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="J44" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="K44">
         <v>33.467</v>
@@ -6065,10 +6125,10 @@
         <v>43</v>
       </c>
       <c r="R44" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="S44" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="T44" t="s">
         <v>49</v>
@@ -6106,28 +6166,28 @@
         <v>57</v>
       </c>
       <c r="C45" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D45" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="E45" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F45" t="s">
         <v>94</v>
       </c>
       <c r="G45" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H45" t="s">
         <v>70</v>
       </c>
       <c r="I45" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="J45" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="K45">
         <v>35.3806</v>
@@ -6151,10 +6211,10 @@
         <v>43</v>
       </c>
       <c r="R45" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="S45" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="T45" t="s">
         <v>46</v>
@@ -6192,28 +6252,28 @@
         <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D46" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E46" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F46" t="s">
         <v>34</v>
       </c>
       <c r="G46" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="H46" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I46" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="J46" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="K46">
         <v>34.3918</v>
@@ -6237,10 +6297,10 @@
         <v>43</v>
       </c>
       <c r="R46" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="S46" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="T46" t="s">
         <v>49</v>
@@ -6270,7 +6330,7 @@
         <v>2</v>
       </c>
       <c r="AC46" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="47" spans="2:29" x14ac:dyDescent="0.25">
@@ -6278,28 +6338,28 @@
         <v>74</v>
       </c>
       <c r="C47" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D47" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E47" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F47" t="s">
         <v>34</v>
       </c>
       <c r="G47" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="H47" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="I47" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="J47" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="K47">
         <v>33.2215</v>
@@ -6323,10 +6383,10 @@
         <v>43</v>
       </c>
       <c r="R47" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="S47" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="T47" t="s">
         <v>74</v>
@@ -6364,28 +6424,28 @@
         <v>30</v>
       </c>
       <c r="C48" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D48" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="E48" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F48" t="s">
         <v>85</v>
       </c>
       <c r="G48" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="H48" t="s">
         <v>53</v>
       </c>
       <c r="I48" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="J48" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="K48">
         <v>35.7971</v>
@@ -6409,10 +6469,10 @@
         <v>43</v>
       </c>
       <c r="R48" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="S48" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="T48" t="s">
         <v>49</v>
@@ -6442,36 +6502,36 @@
         <v>4</v>
       </c>
       <c r="AC48" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="49" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C49" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D49" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="E49" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="F49" t="s">
         <v>34</v>
       </c>
       <c r="G49" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="H49" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="I49" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="J49" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="K49">
         <v>33.053</v>
@@ -6495,13 +6555,13 @@
         <v>43</v>
       </c>
       <c r="R49" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="S49" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="T49" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="U49" t="s">
         <v>47</v>
@@ -6528,7 +6588,7 @@
         <v>4</v>
       </c>
       <c r="AC49" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="50" spans="2:29" x14ac:dyDescent="0.25">
@@ -6536,28 +6596,28 @@
         <v>30</v>
       </c>
       <c r="C50" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D50" t="s">
         <v>102</v>
       </c>
       <c r="E50" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="F50" t="s">
         <v>85</v>
       </c>
       <c r="G50" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="H50" t="s">
         <v>105</v>
       </c>
       <c r="I50" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="J50" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="K50">
         <v>33.3235</v>
@@ -6581,10 +6641,10 @@
         <v>43</v>
       </c>
       <c r="R50" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="S50" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="T50" t="s">
         <v>49</v>
@@ -6622,28 +6682,28 @@
         <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D51" t="s">
         <v>83</v>
       </c>
       <c r="E51" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="F51" t="s">
         <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="H51" t="s">
         <v>87</v>
       </c>
       <c r="I51" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="J51" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="K51">
         <v>36.5104</v>
@@ -6667,10 +6727,10 @@
         <v>43</v>
       </c>
       <c r="R51" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="S51" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="T51" t="s">
         <v>91</v>
@@ -6708,28 +6768,28 @@
         <v>30</v>
       </c>
       <c r="C52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D52" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="E52" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="F52" t="s">
         <v>34</v>
       </c>
       <c r="G52" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="H52" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I52" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="J52" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="K52">
         <v>37.914</v>
@@ -6753,10 +6813,10 @@
         <v>43</v>
       </c>
       <c r="R52" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="S52" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="T52" t="s">
         <v>49</v>
@@ -6794,28 +6854,28 @@
         <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D53" t="s">
         <v>102</v>
       </c>
       <c r="E53" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="F53" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G53" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H53" t="s">
         <v>87</v>
       </c>
       <c r="I53" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="J53" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="K53">
         <v>35.2756</v>
@@ -6839,10 +6899,10 @@
         <v>43</v>
       </c>
       <c r="R53" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="S53" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="T53" t="s">
         <v>57</v>
@@ -6880,28 +6940,28 @@
         <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D54" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="E54" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="F54" t="s">
         <v>94</v>
       </c>
       <c r="G54" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="H54" t="s">
         <v>36</v>
       </c>
       <c r="I54" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="J54" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K54">
         <v>36.4394</v>
@@ -6925,10 +6985,10 @@
         <v>43</v>
       </c>
       <c r="R54" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="S54" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="T54" t="s">
         <v>49</v>
@@ -6958,36 +7018,36 @@
         <v>8</v>
       </c>
       <c r="AC54" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="55" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C55" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D55" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="E55" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="F55" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G55" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="H55" t="s">
         <v>122</v>
       </c>
       <c r="I55" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="J55" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="K55">
         <v>36.0231</v>
@@ -7011,10 +7071,10 @@
         <v>43</v>
       </c>
       <c r="R55" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="S55" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="T55" t="s">
         <v>57</v>
@@ -7052,28 +7112,28 @@
         <v>91</v>
       </c>
       <c r="C56" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D56" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="E56" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="F56" t="s">
         <v>34</v>
       </c>
       <c r="G56" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="H56" t="s">
         <v>36</v>
       </c>
       <c r="I56" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="J56" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="K56">
         <v>34.2019</v>
@@ -7097,10 +7157,10 @@
         <v>43</v>
       </c>
       <c r="R56" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="S56" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="T56" t="s">
         <v>49</v>
@@ -7130,7 +7190,7 @@
         <v>4</v>
       </c>
       <c r="AC56" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="57" spans="2:29" x14ac:dyDescent="0.25">
@@ -7138,28 +7198,28 @@
         <v>46</v>
       </c>
       <c r="C57" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D57" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="E57" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="F57" t="s">
         <v>85</v>
       </c>
       <c r="G57" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="H57" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="I57" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="J57" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="K57">
         <v>33.3671</v>
@@ -7183,10 +7243,10 @@
         <v>43</v>
       </c>
       <c r="R57" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="S57" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="T57" t="s">
         <v>49</v>
@@ -7221,31 +7281,31 @@
     </row>
     <row r="58" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C58" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="D58" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="E58" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="F58" t="s">
         <v>34</v>
       </c>
       <c r="G58" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="H58" t="s">
         <v>62</v>
       </c>
       <c r="I58" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="J58" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="K58">
         <v>37.4511</v>
@@ -7269,10 +7329,10 @@
         <v>43</v>
       </c>
       <c r="R58" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="S58" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="T58" t="s">
         <v>57</v>
@@ -7302,36 +7362,36 @@
         <v>8</v>
       </c>
       <c r="AC58" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="59" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C59" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D59" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="E59" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="F59" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G59" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="H59" t="s">
         <v>62</v>
       </c>
       <c r="I59" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="J59" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="K59">
         <v>37.0477</v>
@@ -7355,10 +7415,10 @@
         <v>43</v>
       </c>
       <c r="R59" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="S59" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="T59" t="s">
         <v>74</v>
@@ -7396,28 +7456,28 @@
         <v>74</v>
       </c>
       <c r="C60" t="s">
+        <v>434</v>
+      </c>
+      <c r="D60" t="s">
+        <v>435</v>
+      </c>
+      <c r="E60" t="s">
+        <v>428</v>
+      </c>
+      <c r="F60" t="s">
+        <v>159</v>
+      </c>
+      <c r="G60" t="s">
+        <v>436</v>
+      </c>
+      <c r="H60" t="s">
+        <v>437</v>
+      </c>
+      <c r="I60" t="s">
         <v>430</v>
       </c>
-      <c r="D60" t="s">
-        <v>431</v>
-      </c>
-      <c r="E60" t="s">
-        <v>424</v>
-      </c>
-      <c r="F60" t="s">
-        <v>155</v>
-      </c>
-      <c r="G60" t="s">
-        <v>432</v>
-      </c>
-      <c r="H60" t="s">
-        <v>433</v>
-      </c>
-      <c r="I60" t="s">
-        <v>426</v>
-      </c>
       <c r="J60" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="K60">
         <v>37.9661</v>
@@ -7441,10 +7501,10 @@
         <v>43</v>
       </c>
       <c r="R60" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="S60" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="T60" t="s">
         <v>49</v>
@@ -7482,28 +7542,28 @@
         <v>46</v>
       </c>
       <c r="C61" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="D61" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E61" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="F61" t="s">
         <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="H61" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I61" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="J61" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="K61">
         <v>36.5645</v>
@@ -7527,10 +7587,10 @@
         <v>43</v>
       </c>
       <c r="R61" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="S61" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="T61" t="s">
         <v>49</v>
@@ -7565,31 +7625,31 @@
     </row>
     <row r="62" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C62" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D62" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="E62" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="F62" t="s">
         <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H62" t="s">
         <v>62</v>
       </c>
       <c r="I62" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="J62" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="K62">
         <v>36.1006</v>
@@ -7613,10 +7673,10 @@
         <v>43</v>
       </c>
       <c r="R62" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="S62" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="T62" t="s">
         <v>66</v>
@@ -7646,7 +7706,7 @@
         <v>4</v>
       </c>
       <c r="AC62" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="63" spans="2:29" x14ac:dyDescent="0.25">
@@ -7657,25 +7717,25 @@
         <v>75</v>
       </c>
       <c r="D63" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="E63" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="F63" t="s">
         <v>77</v>
       </c>
       <c r="G63" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="H63" t="s">
         <v>105</v>
       </c>
       <c r="I63" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="J63" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="K63">
         <v>33.2872</v>
@@ -7699,10 +7759,10 @@
         <v>43</v>
       </c>
       <c r="R63" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="S63" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="T63" t="s">
         <v>49</v>
@@ -7740,28 +7800,28 @@
         <v>46</v>
       </c>
       <c r="C64" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D64" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="E64" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="F64" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G64" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="H64" t="s">
         <v>62</v>
       </c>
       <c r="I64" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="J64" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="K64">
         <v>33.2174</v>
@@ -7785,13 +7845,13 @@
         <v>43</v>
       </c>
       <c r="R64" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="S64" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="T64" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="U64" t="s">
         <v>47</v>
@@ -7826,28 +7886,28 @@
         <v>30</v>
       </c>
       <c r="C65" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="D65" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="E65" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="F65" t="s">
         <v>94</v>
       </c>
       <c r="G65" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H65" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I65" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="J65" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="K65">
         <v>35.7787</v>
@@ -7871,10 +7931,10 @@
         <v>43</v>
       </c>
       <c r="R65" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="S65" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="T65" t="s">
         <v>49</v>
@@ -7912,28 +7972,28 @@
         <v>30</v>
       </c>
       <c r="C66" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="D66" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="E66" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="F66" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G66" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="H66" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="I66" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="J66" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="K66">
         <v>35.8456</v>
@@ -7957,10 +8017,10 @@
         <v>43</v>
       </c>
       <c r="R66" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="S66" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="T66" t="s">
         <v>30</v>
@@ -7998,28 +8058,28 @@
         <v>99</v>
       </c>
       <c r="C67" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="D67" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="E67" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="F67" t="s">
         <v>94</v>
       </c>
       <c r="G67" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="H67" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="I67" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="J67" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="K67">
         <v>34.4245</v>
@@ -8043,10 +8103,10 @@
         <v>43</v>
       </c>
       <c r="R67" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="S67" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="T67" t="s">
         <v>46</v>
@@ -8084,28 +8144,28 @@
         <v>58</v>
       </c>
       <c r="C68" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D68" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E68" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="F68" t="s">
         <v>34</v>
       </c>
       <c r="G68" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="H68" t="s">
         <v>105</v>
       </c>
       <c r="I68" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="J68" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="K68">
         <v>35.719</v>
@@ -8129,10 +8189,10 @@
         <v>43</v>
       </c>
       <c r="R68" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="S68" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="T68" t="s">
         <v>49</v>
@@ -8162,7 +8222,7 @@
         <v>4</v>
       </c>
       <c r="AC68" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="69" spans="2:29" x14ac:dyDescent="0.25">
@@ -8170,28 +8230,28 @@
         <v>57</v>
       </c>
       <c r="C69" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D69" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="E69" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="F69" t="s">
         <v>34</v>
       </c>
       <c r="G69" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="H69" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="I69" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="J69" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="K69">
         <v>37.9447</v>
@@ -8215,10 +8275,10 @@
         <v>43</v>
       </c>
       <c r="R69" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="S69" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="T69" t="s">
         <v>74</v>
@@ -8248,7 +8308,7 @@
         <v>7</v>
       </c>
       <c r="AC69" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="70" spans="2:29" x14ac:dyDescent="0.25">
@@ -8259,25 +8319,25 @@
         <v>75</v>
       </c>
       <c r="D70" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E70" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="F70" t="s">
         <v>77</v>
       </c>
       <c r="G70" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="H70" t="s">
         <v>122</v>
       </c>
       <c r="I70" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="J70" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="K70">
         <v>34.8636</v>
@@ -8301,10 +8361,10 @@
         <v>43</v>
       </c>
       <c r="R70" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="S70" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="T70" t="s">
         <v>49</v>
@@ -8334,7 +8394,7 @@
         <v>4</v>
       </c>
       <c r="AC70" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="71" spans="2:29" x14ac:dyDescent="0.25">
@@ -8342,28 +8402,28 @@
         <v>30</v>
       </c>
       <c r="C71" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D71" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="E71" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="F71" t="s">
         <v>34</v>
       </c>
       <c r="G71" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="H71" t="s">
         <v>36</v>
       </c>
       <c r="I71" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="J71" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="K71">
         <v>36.3494</v>
@@ -8387,10 +8447,10 @@
         <v>43</v>
       </c>
       <c r="R71" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="S71" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="T71" t="s">
         <v>30</v>
@@ -8420,7 +8480,7 @@
         <v>8</v>
       </c>
       <c r="AC71" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="72" spans="2:29" x14ac:dyDescent="0.25">
@@ -8428,28 +8488,28 @@
         <v>46</v>
       </c>
       <c r="C72" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="D72" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E72" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="F72" t="s">
         <v>85</v>
       </c>
       <c r="G72" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="H72" t="s">
         <v>87</v>
       </c>
       <c r="I72" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="J72" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="K72">
         <v>35.7125</v>
@@ -8473,10 +8533,10 @@
         <v>43</v>
       </c>
       <c r="R72" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="S72" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="T72" t="s">
         <v>49</v>
@@ -8514,28 +8574,28 @@
         <v>57</v>
       </c>
       <c r="C73" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="D73" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E73" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="F73" t="s">
         <v>94</v>
       </c>
       <c r="G73" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="H73" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="I73" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="J73" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="K73">
         <v>37.1534</v>
@@ -8559,10 +8619,10 @@
         <v>43</v>
       </c>
       <c r="R73" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="S73" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="T73" t="s">
         <v>49</v>
@@ -8592,7 +8652,7 @@
         <v>4</v>
       </c>
       <c r="AC73" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
     </row>
     <row r="74" spans="2:29" x14ac:dyDescent="0.25">
@@ -8600,28 +8660,28 @@
         <v>99</v>
       </c>
       <c r="C74" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="D74" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="E74" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="F74" t="s">
         <v>85</v>
       </c>
       <c r="G74" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H74" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="I74" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="J74" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="K74">
         <v>35.7146</v>
@@ -8645,10 +8705,10 @@
         <v>43</v>
       </c>
       <c r="R74" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="S74" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="T74" t="s">
         <v>58</v>
@@ -8683,31 +8743,31 @@
     </row>
     <row r="75" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C75" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="D75" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E75" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="F75" t="s">
         <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="H75" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="I75" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="J75" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="K75">
         <v>33.3703</v>
@@ -8731,10 +8791,10 @@
         <v>43</v>
       </c>
       <c r="R75" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="S75" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="T75" t="s">
         <v>49</v>
@@ -8772,28 +8832,28 @@
         <v>99</v>
       </c>
       <c r="C76" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="D76" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E76" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="F76" t="s">
         <v>94</v>
       </c>
       <c r="G76" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="H76" t="s">
         <v>87</v>
       </c>
       <c r="I76" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="J76" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="K76">
         <v>37.9038</v>
@@ -8817,10 +8877,10 @@
         <v>43</v>
       </c>
       <c r="R76" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="S76" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="T76" t="s">
         <v>49</v>
@@ -8850,7 +8910,7 @@
         <v>4</v>
       </c>
       <c r="AC76" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="77" spans="2:29" x14ac:dyDescent="0.25">
@@ -8858,28 +8918,28 @@
         <v>91</v>
       </c>
       <c r="C77" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="D77" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="E77" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="F77" t="s">
         <v>34</v>
       </c>
       <c r="G77" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="H77" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="I77" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="J77" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="K77">
         <v>34.9354</v>
@@ -8903,10 +8963,10 @@
         <v>43</v>
       </c>
       <c r="R77" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="S77" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="T77" t="s">
         <v>49</v>
@@ -8944,28 +9004,28 @@
         <v>46</v>
       </c>
       <c r="C78" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="D78" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E78" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="F78" t="s">
         <v>34</v>
       </c>
       <c r="G78" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="H78" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="I78" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="J78" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="K78">
         <v>37.9755</v>
@@ -8989,10 +9049,10 @@
         <v>43</v>
       </c>
       <c r="R78" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="S78" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="T78" t="s">
         <v>49</v>
@@ -9030,28 +9090,28 @@
         <v>58</v>
       </c>
       <c r="C79" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D79" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="E79" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="F79" t="s">
         <v>77</v>
       </c>
       <c r="G79" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="H79" t="s">
         <v>105</v>
       </c>
       <c r="I79" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="J79" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="K79">
         <v>37.9866</v>
@@ -9075,10 +9135,10 @@
         <v>43</v>
       </c>
       <c r="R79" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="S79" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="T79" t="s">
         <v>91</v>
@@ -9108,7 +9168,7 @@
         <v>2</v>
       </c>
       <c r="AC79" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="80" spans="2:29" x14ac:dyDescent="0.25">
@@ -9116,28 +9176,28 @@
         <v>46</v>
       </c>
       <c r="C80" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D80" t="s">
         <v>83</v>
       </c>
       <c r="E80" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="F80" t="s">
         <v>77</v>
       </c>
       <c r="G80" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="H80" t="s">
         <v>105</v>
       </c>
       <c r="I80" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="J80" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="K80">
         <v>34.1483</v>
@@ -9161,10 +9221,10 @@
         <v>43</v>
       </c>
       <c r="R80" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="S80" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="T80" t="s">
         <v>49</v>
@@ -9194,7 +9254,7 @@
         <v>8</v>
       </c>
       <c r="AC80" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
     </row>
     <row r="81" spans="2:29" x14ac:dyDescent="0.25">
@@ -9202,28 +9262,28 @@
         <v>66</v>
       </c>
       <c r="C81" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="D81" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="E81" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="F81" t="s">
         <v>34</v>
       </c>
       <c r="G81" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="H81" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="I81" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="J81" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="K81">
         <v>34.6042</v>
@@ -9247,10 +9307,10 @@
         <v>43</v>
       </c>
       <c r="R81" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="S81" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="T81" t="s">
         <v>49</v>
@@ -9285,31 +9345,31 @@
     </row>
     <row r="82" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C82" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="D82" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="E82" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="F82" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G82" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="H82" t="s">
         <v>62</v>
       </c>
       <c r="I82" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="J82" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="K82">
         <v>36.7288</v>
@@ -9333,10 +9393,10 @@
         <v>43</v>
       </c>
       <c r="R82" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="S82" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="T82" t="s">
         <v>58</v>
@@ -9374,28 +9434,28 @@
         <v>74</v>
       </c>
       <c r="C83" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="D83" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E83" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="F83" t="s">
         <v>34</v>
       </c>
       <c r="G83" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="H83" t="s">
         <v>87</v>
       </c>
       <c r="I83" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="J83" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="K83">
         <v>34.5277</v>
@@ -9419,10 +9479,10 @@
         <v>43</v>
       </c>
       <c r="R83" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="S83" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="T83" t="s">
         <v>46</v>
@@ -9452,7 +9512,7 @@
         <v>5</v>
       </c>
       <c r="AC83" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="84" spans="2:29" x14ac:dyDescent="0.25">
@@ -9460,28 +9520,28 @@
         <v>66</v>
       </c>
       <c r="C84" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D84" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="E84" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="F84" t="s">
         <v>34</v>
       </c>
       <c r="G84" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="H84" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="I84" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="J84" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="K84">
         <v>36.5609</v>
@@ -9505,10 +9565,10 @@
         <v>43</v>
       </c>
       <c r="R84" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="S84" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="T84" t="s">
         <v>49</v>
@@ -9546,28 +9606,28 @@
         <v>99</v>
       </c>
       <c r="C85" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="D85" t="s">
         <v>102</v>
       </c>
       <c r="E85" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="F85" t="s">
         <v>34</v>
       </c>
       <c r="G85" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="H85" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I85" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="J85" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="K85">
         <v>36.0363</v>
@@ -9591,10 +9651,10 @@
         <v>43</v>
       </c>
       <c r="R85" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="S85" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="T85" t="s">
         <v>49</v>
@@ -9629,31 +9689,31 @@
     </row>
     <row r="86" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C86" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="D86" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="E86" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="F86" t="s">
         <v>94</v>
       </c>
       <c r="G86" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="H86" t="s">
         <v>122</v>
       </c>
       <c r="I86" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="J86" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="K86">
         <v>36.8853</v>
@@ -9677,10 +9737,10 @@
         <v>43</v>
       </c>
       <c r="R86" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="S86" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="T86" t="s">
         <v>66</v>
@@ -9715,31 +9775,31 @@
     </row>
     <row r="87" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C87" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="D87" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E87" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="F87" t="s">
         <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="H87" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I87" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="J87" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="K87">
         <v>33.0042</v>
@@ -9763,10 +9823,10 @@
         <v>43</v>
       </c>
       <c r="R87" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="S87" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="T87" t="s">
         <v>57</v>
@@ -9804,28 +9864,28 @@
         <v>74</v>
       </c>
       <c r="C88" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D88" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="E88" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="F88" t="s">
         <v>77</v>
       </c>
       <c r="G88" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="H88" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="I88" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="J88" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="K88">
         <v>34.3892</v>
@@ -9849,10 +9909,10 @@
         <v>43</v>
       </c>
       <c r="R88" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="S88" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="T88" t="s">
         <v>49</v>
@@ -9882,7 +9942,7 @@
         <v>7</v>
       </c>
       <c r="AC88" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="89" spans="2:29" x14ac:dyDescent="0.25">
@@ -9890,28 +9950,28 @@
         <v>57</v>
       </c>
       <c r="C89" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="D89" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E89" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="F89" t="s">
         <v>94</v>
       </c>
       <c r="G89" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="H89" t="s">
         <v>87</v>
       </c>
       <c r="I89" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="J89" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="K89">
         <v>35.3348</v>
@@ -9935,10 +9995,10 @@
         <v>43</v>
       </c>
       <c r="R89" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="S89" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="T89" t="s">
         <v>49</v>
@@ -9968,7 +10028,7 @@
         <v>8</v>
       </c>
       <c r="AC89" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="90" spans="2:29" x14ac:dyDescent="0.25">
@@ -9976,28 +10036,28 @@
         <v>66</v>
       </c>
       <c r="C90" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="D90" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="E90" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="F90" t="s">
         <v>34</v>
       </c>
       <c r="G90" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="H90" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I90" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="J90" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="K90">
         <v>37.9973</v>
@@ -10021,10 +10081,10 @@
         <v>43</v>
       </c>
       <c r="R90" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="S90" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="T90" t="s">
         <v>49</v>
@@ -10062,28 +10122,28 @@
         <v>91</v>
       </c>
       <c r="C91" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D91" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="E91" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="F91" t="s">
         <v>77</v>
       </c>
       <c r="G91" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="H91" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I91" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="J91" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="K91">
         <v>35.676</v>
@@ -10107,10 +10167,10 @@
         <v>43</v>
       </c>
       <c r="R91" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="S91" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="T91" t="s">
         <v>49</v>
@@ -10140,7 +10200,7 @@
         <v>4</v>
       </c>
       <c r="AC91" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
     </row>
     <row r="92" spans="2:29" x14ac:dyDescent="0.25">
@@ -10148,28 +10208,28 @@
         <v>91</v>
       </c>
       <c r="C92" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="D92" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="E92" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="F92" t="s">
         <v>34</v>
       </c>
       <c r="G92" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="H92" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I92" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="J92" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="K92">
         <v>35.9628</v>
@@ -10193,10 +10253,10 @@
         <v>43</v>
       </c>
       <c r="R92" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="S92" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="T92" t="s">
         <v>49</v>
@@ -10234,28 +10294,28 @@
         <v>91</v>
       </c>
       <c r="C93" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="D93" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="E93" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="F93" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G93" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="H93" t="s">
         <v>122</v>
       </c>
       <c r="I93" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="J93" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="K93">
         <v>36.3059</v>
@@ -10279,10 +10339,10 @@
         <v>43</v>
       </c>
       <c r="R93" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="S93" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="T93" t="s">
         <v>49</v>
@@ -10312,36 +10372,36 @@
         <v>7</v>
       </c>
       <c r="AC93" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="94" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C94" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="D94" t="s">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="F94" t="s">
         <v>34</v>
       </c>
       <c r="G94" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="H94" t="s">
         <v>36</v>
       </c>
       <c r="I94" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="J94" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="K94">
         <v>34.0533</v>
@@ -10365,10 +10425,10 @@
         <v>43</v>
       </c>
       <c r="R94" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="S94" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="T94" t="s">
         <v>49</v>
@@ -10406,28 +10466,28 @@
         <v>30</v>
       </c>
       <c r="C95" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="D95" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="E95" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="F95" t="s">
         <v>34</v>
       </c>
       <c r="G95" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="H95" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="I95" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="J95" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="K95">
         <v>36.9623</v>
@@ -10451,10 +10511,10 @@
         <v>43</v>
       </c>
       <c r="R95" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="S95" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="T95" t="s">
         <v>49</v>
@@ -10492,28 +10552,28 @@
         <v>46</v>
       </c>
       <c r="C96" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="D96" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="E96" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="F96" t="s">
         <v>85</v>
       </c>
       <c r="G96" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="H96" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="I96" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="J96" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="K96">
         <v>36.3615</v>
@@ -10537,10 +10597,10 @@
         <v>43</v>
       </c>
       <c r="R96" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="S96" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="T96" t="s">
         <v>49</v>
@@ -10578,28 +10638,28 @@
         <v>74</v>
       </c>
       <c r="C97" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="D97" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="E97" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="F97" t="s">
         <v>94</v>
       </c>
       <c r="G97" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="H97" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="I97" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="J97" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="K97">
         <v>36.718</v>
@@ -10623,10 +10683,10 @@
         <v>43</v>
       </c>
       <c r="R97" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="S97" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="T97" t="s">
         <v>74</v>
@@ -10664,28 +10724,28 @@
         <v>58</v>
       </c>
       <c r="C98" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="D98" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E98" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="F98" t="s">
         <v>85</v>
       </c>
       <c r="G98" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="H98" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="I98" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="J98" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="K98">
         <v>33.1753</v>
@@ -10709,10 +10769,10 @@
         <v>43</v>
       </c>
       <c r="R98" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="S98" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="T98" t="s">
         <v>57</v>
@@ -10750,28 +10810,28 @@
         <v>46</v>
       </c>
       <c r="C99" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D99" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="E99" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="F99" t="s">
         <v>77</v>
       </c>
       <c r="G99" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="H99" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="I99" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="J99" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="K99">
         <v>34.5835</v>
@@ -10795,10 +10855,10 @@
         <v>43</v>
       </c>
       <c r="R99" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="S99" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="T99" t="s">
         <v>49</v>
@@ -10828,7 +10888,7 @@
         <v>5</v>
       </c>
       <c r="AC99" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
     </row>
     <row r="100" spans="2:29" x14ac:dyDescent="0.25">
@@ -10836,28 +10896,28 @@
         <v>58</v>
       </c>
       <c r="C100" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="D100" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="E100" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="F100" t="s">
         <v>85</v>
       </c>
       <c r="G100" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="H100" t="s">
         <v>122</v>
       </c>
       <c r="I100" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="J100" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="K100">
         <v>34.9238</v>
@@ -10881,10 +10941,10 @@
         <v>43</v>
       </c>
       <c r="R100" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="S100" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="T100" t="s">
         <v>99</v>
@@ -10922,28 +10982,28 @@
         <v>58</v>
       </c>
       <c r="C101" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="D101" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="E101" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="F101" t="s">
         <v>94</v>
       </c>
       <c r="G101" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="H101" t="s">
         <v>62</v>
       </c>
       <c r="I101" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="J101" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="K101">
         <v>35.5176</v>
@@ -10967,10 +11027,10 @@
         <v>43</v>
       </c>
       <c r="R101" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="S101" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="T101" t="s">
         <v>49</v>
@@ -11008,28 +11068,28 @@
         <v>74</v>
       </c>
       <c r="C102" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="D102" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="E102" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="F102" t="s">
         <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="H102" t="s">
         <v>36</v>
       </c>
       <c r="I102" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="J102" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="K102">
         <v>36.9386</v>
@@ -11053,10 +11113,10 @@
         <v>43</v>
       </c>
       <c r="R102" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="S102" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="T102" t="s">
         <v>49</v>
@@ -11094,28 +11154,28 @@
         <v>66</v>
       </c>
       <c r="C103" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="D103" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="E103" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="F103" t="s">
         <v>34</v>
       </c>
       <c r="G103" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="H103" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="I103" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="J103" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="K103">
         <v>37.3196</v>
@@ -11139,10 +11199,10 @@
         <v>43</v>
       </c>
       <c r="R103" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="S103" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="T103" t="s">
         <v>49</v>
@@ -11173,6 +11233,287 @@
       </c>
       <c r="AC103" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="104" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>696</v>
+      </c>
+      <c r="C104" t="s">
+        <v>697</v>
+      </c>
+      <c r="D104" t="s">
+        <v>698</v>
+      </c>
+      <c r="E104" t="s">
+        <v>37</v>
+      </c>
+      <c r="F104" t="s">
+        <v>699</v>
+      </c>
+      <c r="G104" t="s">
+        <v>700</v>
+      </c>
+      <c r="H104" t="s">
+        <v>698</v>
+      </c>
+      <c r="I104" t="s">
+        <v>37</v>
+      </c>
+      <c r="J104" t="s">
+        <v>701</v>
+      </c>
+      <c r="N104" t="s">
+        <v>40</v>
+      </c>
+      <c r="O104" t="s">
+        <v>41</v>
+      </c>
+      <c r="U104" t="s">
+        <v>47</v>
+      </c>
+      <c r="V104" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z104">
+        <v>100</v>
+      </c>
+      <c r="AA104">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="105" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>702</v>
+      </c>
+      <c r="C105" t="s">
+        <v>49</v>
+      </c>
+      <c r="U105" t="s">
+        <v>47</v>
+      </c>
+      <c r="V105" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z105">
+        <v>100</v>
+      </c>
+      <c r="AA105">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="106" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>703</v>
+      </c>
+      <c r="C106" t="s">
+        <v>704</v>
+      </c>
+      <c r="D106" t="s">
+        <v>698</v>
+      </c>
+      <c r="E106" t="s">
+        <v>37</v>
+      </c>
+      <c r="F106" t="s">
+        <v>699</v>
+      </c>
+      <c r="G106" t="s">
+        <v>700</v>
+      </c>
+      <c r="H106" t="s">
+        <v>698</v>
+      </c>
+      <c r="I106" t="s">
+        <v>37</v>
+      </c>
+      <c r="J106" t="s">
+        <v>701</v>
+      </c>
+      <c r="N106" t="s">
+        <v>40</v>
+      </c>
+      <c r="O106" t="s">
+        <v>41</v>
+      </c>
+      <c r="U106" t="s">
+        <v>47</v>
+      </c>
+      <c r="V106" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z106">
+        <v>100</v>
+      </c>
+      <c r="AA106">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="107" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>705</v>
+      </c>
+      <c r="C107" t="s">
+        <v>49</v>
+      </c>
+      <c r="U107" t="s">
+        <v>47</v>
+      </c>
+      <c r="V107" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z107">
+        <v>100</v>
+      </c>
+      <c r="AA107">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="108" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>706</v>
+      </c>
+      <c r="C108" t="s">
+        <v>49</v>
+      </c>
+      <c r="U108" t="s">
+        <v>47</v>
+      </c>
+      <c r="V108" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z108">
+        <v>100</v>
+      </c>
+      <c r="AA108">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="109" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>707</v>
+      </c>
+      <c r="C109" t="s">
+        <v>708</v>
+      </c>
+      <c r="D109" t="s">
+        <v>698</v>
+      </c>
+      <c r="E109" t="s">
+        <v>37</v>
+      </c>
+      <c r="F109" t="s">
+        <v>699</v>
+      </c>
+      <c r="G109" t="s">
+        <v>700</v>
+      </c>
+      <c r="H109" t="s">
+        <v>698</v>
+      </c>
+      <c r="I109" t="s">
+        <v>37</v>
+      </c>
+      <c r="J109" t="s">
+        <v>701</v>
+      </c>
+      <c r="N109" t="s">
+        <v>40</v>
+      </c>
+      <c r="O109" t="s">
+        <v>41</v>
+      </c>
+      <c r="U109" t="s">
+        <v>47</v>
+      </c>
+      <c r="V109" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z109">
+        <v>100</v>
+      </c>
+      <c r="AA109">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="110" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>709</v>
+      </c>
+      <c r="C110" t="s">
+        <v>49</v>
+      </c>
+      <c r="U110" t="s">
+        <v>47</v>
+      </c>
+      <c r="V110" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z110">
+        <v>100</v>
+      </c>
+      <c r="AA110">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="111" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>191</v>
+      </c>
+      <c r="C111" t="s">
+        <v>49</v>
+      </c>
+      <c r="U111" t="s">
+        <v>47</v>
+      </c>
+      <c r="V111" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z111">
+        <v>100</v>
+      </c>
+      <c r="AA111">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="112" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>710</v>
+      </c>
+      <c r="C112" t="s">
+        <v>49</v>
+      </c>
+      <c r="U112" t="s">
+        <v>47</v>
+      </c>
+      <c r="V112" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z112">
+        <v>100</v>
+      </c>
+      <c r="AA112">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="113" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>711</v>
+      </c>
+      <c r="C113" t="s">
+        <v>49</v>
+      </c>
+      <c r="U113" t="s">
+        <v>47</v>
+      </c>
+      <c r="V113" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z113">
+        <v>100</v>
+      </c>
+      <c r="AA113">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
